--- a/output.xlsx
+++ b/output.xlsx
@@ -4,1306 +4,172 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <sheets>
-    <sheet name="Grounds" sheetId="1" r:id="rId1"/>
+    <sheet name="Matches" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="431" count="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53" count="53">
   <si>
     <t>Division</t>
   </si>
   <si>
-    <t>Div URL</t>
+    <t>Home</t>
   </si>
   <si>
-    <t>Club</t>
-  </si>
-  <si>
-    <t>Team</t>
-  </si>
-  <si>
-    <t>Team URL</t>
+    <t>Away</t>
   </si>
   <si>
     <t>Ground</t>
   </si>
   <si>
-    <t>Ground URL</t>
-  </si>
-  <si>
-    <t>29/04/2023</t>
-  </si>
-  <si>
-    <t>06/05/2023</t>
-  </si>
-  <si>
-    <t>13/05/2023</t>
-  </si>
-  <si>
-    <t>20/05/2023</t>
-  </si>
-  <si>
-    <t>27/05/2023</t>
-  </si>
-  <si>
-    <t>03/06/2023</t>
-  </si>
-  <si>
-    <t>10/06/2023</t>
-  </si>
-  <si>
-    <t>17/06/2023</t>
-  </si>
-  <si>
-    <t>24/06/2023</t>
-  </si>
-  <si>
-    <t>01/07/2023</t>
-  </si>
-  <si>
-    <t>08/07/2023</t>
-  </si>
-  <si>
-    <t>15/07/2023</t>
-  </si>
-  <si>
-    <t>22/07/2023</t>
-  </si>
-  <si>
-    <t>29/07/2023</t>
-  </si>
-  <si>
-    <t>05/08/2023</t>
-  </si>
-  <si>
-    <t>12/08/2023</t>
-  </si>
-  <si>
-    <t>19/08/2023</t>
-  </si>
-  <si>
-    <t>26/08/2023</t>
-  </si>
-  <si>
-    <t>02/09/2023</t>
-  </si>
-  <si>
-    <t>09/09/2023</t>
-  </si>
-  <si>
-    <t>16/09/2023</t>
-  </si>
-  <si>
-    <t>23/09/2023</t>
-  </si>
-  <si>
-    <t>30/09/2023</t>
-  </si>
-  <si>
-    <t>07/10/2023</t>
-  </si>
-  <si>
-    <t>14/10/2023</t>
-  </si>
-  <si>
-    <t>21/10/2023</t>
-  </si>
-  <si>
-    <t>CCA Senior League Division 1</t>
-  </si>
-  <si>
-    <t>/website/division/109169</t>
-  </si>
-  <si>
-    <t>Abington CC, Cambs</t>
-  </si>
-  <si>
-    <t>1st XI</t>
-  </si>
-  <si>
-    <t>https://abington.play-cricket.com/Teams/29732</t>
-  </si>
-  <si>
-    <t>Abington Cricket Ground</t>
-  </si>
-  <si>
-    <t>/grounds/13558</t>
-  </si>
-  <si>
-    <t>Bluntisham CC</t>
-  </si>
-  <si>
-    <t>https://bluntisham.play-cricket.com/Teams/41728</t>
-  </si>
-  <si>
-    <t>Bluntisham Recreation Ground</t>
-  </si>
-  <si>
-    <t>/grounds/13076</t>
-  </si>
-  <si>
-    <t>Chatteris CC</t>
-  </si>
-  <si>
-    <t>https://chatteriscc.play-cricket.com/Teams/50180</t>
-  </si>
-  <si>
-    <t>Fullers Cricket Ground</t>
-  </si>
-  <si>
-    <t>/grounds/48356</t>
-  </si>
-  <si>
-    <t>City of Ely CC</t>
-  </si>
-  <si>
-    <t>https://cityofely.play-cricket.com/Teams/23142</t>
-  </si>
-  <si>
-    <t>The Paradise Centre</t>
-  </si>
-  <si>
-    <t>/grounds/25056</t>
-  </si>
-  <si>
-    <t>Fulbourn Institute CC</t>
-  </si>
-  <si>
-    <t>https://fulbourninstitute.play-cricket.com/Teams/32550</t>
-  </si>
-  <si>
-    <t>Fulbourn Recreation Ground</t>
-  </si>
-  <si>
-    <t>/grounds/9770</t>
-  </si>
-  <si>
-    <t>Horseheath CC</t>
-  </si>
-  <si>
-    <t>https://horseheath.play-cricket.com/Teams/134360</t>
-  </si>
-  <si>
-    <t>Longstanton Grasshoppers CC</t>
-  </si>
-  <si>
-    <t>https://lpg.play-cricket.com/Teams/12244</t>
-  </si>
-  <si>
-    <t>Longstanton Recreation Ground</t>
-  </si>
-  <si>
-    <t>/grounds/12312</t>
-  </si>
-  <si>
-    <t>Royston CC, Cambs</t>
-  </si>
-  <si>
-    <t>https://royston.play-cricket.com/Teams/38757</t>
-  </si>
-  <si>
-    <t>Therfield Recreation Ground</t>
-  </si>
-  <si>
-    <t>/grounds/137</t>
-  </si>
-  <si>
-    <t>Wilbrahams CC</t>
-  </si>
-  <si>
-    <t>https://wilbrahams.play-cricket.com/Teams/61651</t>
-  </si>
-  <si>
-    <t>Wilbraham Recreation Ground CB21 5JG</t>
-  </si>
-  <si>
-    <t>/grounds/2654</t>
-  </si>
-  <si>
-    <t>Wisbech Town CC</t>
-  </si>
-  <si>
-    <t>2nd XI</t>
-  </si>
-  <si>
-    <t>https://wisbech.play-cricket.com/Teams/14510</t>
-  </si>
-  <si>
-    <t>/grounds/11646</t>
+    <t>Date</t>
   </si>
   <si>
     <t>CCA Senior League Division 2</t>
   </si>
   <si>
-    <t>/website/division/109170</t>
+    <t>Buntingford CC-1st XI</t>
   </si>
   <si>
-    <t>Buntingford CC</t>
+    <t>Cambourne CC-2nd XI</t>
   </si>
   <si>
-    <t>https://buntingford.play-cricket.com/Teams/134496</t>
+    <t>Norfolk Rd Playing Field, Bowling Green</t>
   </si>
   <si>
-    <t>Cambourne CC</t>
+    <t>2023/07/15</t>
   </si>
   <si>
-    <t>https://cambournecc.play-cricket.com/Teams/71511</t>
+    <t>Cambridge St. Giles CC-2nd XI</t>
+  </si>
+  <si>
+    <t>2023/07/29</t>
+  </si>
+  <si>
+    <t>Madingley CC-1st XI</t>
+  </si>
+  <si>
+    <t>2023/08/26</t>
+  </si>
+  <si>
+    <t>March Town CC-2nd XI</t>
+  </si>
+  <si>
+    <t>2023/06/17</t>
+  </si>
+  <si>
+    <t>Milton CC, Cambs-1st XI</t>
+  </si>
+  <si>
+    <t>2023/08/19</t>
+  </si>
+  <si>
+    <t>Ramsey CC, Hunts-2nd XI</t>
+  </si>
+  <si>
+    <t>2023/09/02</t>
+  </si>
+  <si>
+    <t>Saffron Walden CC-3rd XI</t>
+  </si>
+  <si>
+    <t>2023/07/01</t>
+  </si>
+  <si>
+    <t>Thriplow CC-1st XI</t>
+  </si>
+  <si>
+    <t>2023/06/10</t>
+  </si>
+  <si>
+    <t>Wilburton CC-1st XI</t>
+  </si>
+  <si>
+    <t>2023/05/20</t>
   </si>
   <si>
     <t>Upper Cambourne</t>
   </si>
   <si>
-    <t>/grounds/37673</t>
+    <t>2023/05/13</t>
   </si>
   <si>
-    <t>Cambridge St. Giles CC</t>
+    <t>2023/04/29</t>
   </si>
   <si>
-    <t>https://cambstgiles.play-cricket.com/Teams/41049</t>
+    <t>2023/08/12</t>
+  </si>
+  <si>
+    <t>2023/06/24</t>
+  </si>
+  <si>
+    <t>2023/07/08</t>
+  </si>
+  <si>
+    <t>2023/06/03</t>
+  </si>
+  <si>
+    <t>2023/08/05</t>
   </si>
   <si>
     <t>Dry Drayton Cricket Ground</t>
   </si>
   <si>
-    <t>/grounds/13335</t>
+    <t>2023/05/06</t>
   </si>
   <si>
-    <t>Madingley CC</t>
+    <t>2023/05/27</t>
   </si>
   <si>
-    <t>https://madingley.play-cricket.com/Teams/53396</t>
+    <t>2023/07/22</t>
   </si>
   <si>
-    <t>Kings &amp;amp; Selwyn College</t>
+    <t>Kings &amp;amp;amp; Selwyn</t>
   </si>
   <si>
-    <t>/grounds/35264</t>
+    <t>Kings &amp;amp;amp; Selwyn</t>
   </si>
   <si>
-    <t>March Town CC</t>
+    <t>Kings &amp;amp;amp; Selwyn</t>
   </si>
   <si>
-    <t>https://marchtown.play-cricket.com/Teams/35166</t>
+    <t>Kings &amp;amp;amp; Selwyn</t>
+  </si>
+  <si>
+    <t>Kings &amp;amp;amp; Selwyn</t>
+  </si>
+  <si>
+    <t>Kings &amp;amp;amp; Selwyn</t>
+  </si>
+  <si>
+    <t>Kings &amp;amp;amp; Selwyn</t>
+  </si>
+  <si>
+    <t>Kings &amp;amp;amp; Selwyn</t>
+  </si>
+  <si>
+    <t>Kings &amp;amp;amp; Selwyn</t>
   </si>
   <si>
     <t>March Town Cricket Club</t>
   </si>
   <si>
-    <t>/grounds/10158</t>
+    <t>The Sycamores</t>
   </si>
   <si>
-    <t>Milton CC, Cambs</t>
+    <t>Cricketfield Lane, Ramsey</t>
   </si>
   <si>
-    <t>https://miltoncambs.play-cricket.com/Teams/9865</t>
+    <t>SWCHS</t>
   </si>
   <si>
-    <t>Sycamores Recreation Ground</t>
+    <t>Thriplow</t>
   </si>
   <si>
-    <t>/grounds/12581</t>
-  </si>
-  <si>
-    <t>Ramsey CC, Hunts</t>
-  </si>
-  <si>
-    <t>https://ramseycchunts.play-cricket.com/Teams/78071</t>
-  </si>
-  <si>
-    <t>The Cricketfield</t>
-  </si>
-  <si>
-    <t>/grounds/14834</t>
-  </si>
-  <si>
-    <t>Saffron Walden CC</t>
-  </si>
-  <si>
-    <t>3rd XI</t>
-  </si>
-  <si>
-    <t>https://saffronwalden.play-cricket.com/Teams/72209</t>
-  </si>
-  <si>
-    <t>Thriplow CC</t>
-  </si>
-  <si>
-    <t>https://thriplow.play-cricket.com/Teams/51520</t>
-  </si>
-  <si>
-    <t>Cricket Meadow   SG8 7QU</t>
-  </si>
-  <si>
-    <t>/grounds/4585</t>
-  </si>
-  <si>
-    <t>Wilburton CC</t>
-  </si>
-  <si>
-    <t>https://wilburton.play-cricket.com/Teams/60408</t>
-  </si>
-  <si>
-    <t>The Piece Ground</t>
-  </si>
-  <si>
-    <t>/grounds/2191</t>
-  </si>
-  <si>
-    <t>CCA Senior League Division 3</t>
-  </si>
-  <si>
-    <t>/website/division/109171</t>
-  </si>
-  <si>
-    <t>Audley End &amp;amp; Littlebury CC</t>
-  </si>
-  <si>
-    <t>https://audleyend.play-cricket.com/Teams/71589</t>
-  </si>
-  <si>
-    <t>Cambridge Old Monks CC</t>
-  </si>
-  <si>
-    <t>https://cambridgeoldmonks.play-cricket.com/Teams/323460</t>
-  </si>
-  <si>
-    <t>Caldecote Recreation Ground</t>
-  </si>
-  <si>
-    <t>/grounds/58898</t>
-  </si>
-  <si>
-    <t>Chesterfords CC</t>
-  </si>
-  <si>
-    <t>https://chesterfords.play-cricket.com/Teams/132997</t>
-  </si>
-  <si>
-    <t>Great Chesterford Recreation Ground</t>
-  </si>
-  <si>
-    <t>/grounds/29740</t>
-  </si>
-  <si>
-    <t>Cottenham CC</t>
-  </si>
-  <si>
-    <t>https://cottenham.play-cricket.com/Teams/43226</t>
-  </si>
-  <si>
-    <t>Girton CC</t>
-  </si>
-  <si>
-    <t>https://girton.play-cricket.com/Teams/42059</t>
-  </si>
-  <si>
-    <t>Girton Cricket Club</t>
-  </si>
-  <si>
-    <t>/grounds/6670</t>
-  </si>
-  <si>
-    <t>Isleham CC</t>
-  </si>
-  <si>
-    <t>https://isleham.play-cricket.com/Teams/58940</t>
-  </si>
-  <si>
-    <t>Isleham Recreation Ground</t>
-  </si>
-  <si>
-    <t>/grounds/3773</t>
-  </si>
-  <si>
-    <t>Linton Village CC</t>
-  </si>
-  <si>
-    <t>https://lintonvillage.play-cricket.com/Teams/9962</t>
-  </si>
-  <si>
-    <t>Recreation Ground</t>
-  </si>
-  <si>
-    <t>/grounds/5934</t>
-  </si>
-  <si>
-    <t>Newport CC, Essex</t>
-  </si>
-  <si>
-    <t>https://newportessex.play-cricket.com/Teams/48330</t>
-  </si>
-  <si>
-    <t>Rickling Ramblers CC</t>
-  </si>
-  <si>
-    <t>https://ricklingramblers.play-cricket.com/Teams/8407</t>
-  </si>
-  <si>
-    <t>/grounds/7661</t>
-  </si>
-  <si>
-    <t>CCA Junior League 1 North</t>
-  </si>
-  <si>
-    <t>/website/division/109172</t>
-  </si>
-  <si>
-    <t>Bottisham-Lode CC</t>
-  </si>
-  <si>
-    <t>https://bottishamlode.play-cricket.com/Teams/60932</t>
-  </si>
-  <si>
-    <t>Fassage Hall</t>
-  </si>
-  <si>
-    <t>/grounds/9660</t>
-  </si>
-  <si>
-    <t>Camden CC</t>
-  </si>
-  <si>
-    <t>https://camden.play-cricket.com/Teams/14204</t>
-  </si>
-  <si>
-    <t>Queens and Robinson</t>
-  </si>
-  <si>
-    <t>/grounds/38883</t>
-  </si>
-  <si>
-    <t>Chippenham CC, Cambs</t>
-  </si>
-  <si>
-    <t>https://chippenhamcc.play-cricket.com/Teams/119246</t>
-  </si>
-  <si>
-    <t>Chippenham Park</t>
-  </si>
-  <si>
-    <t>/grounds/9202</t>
-  </si>
-  <si>
-    <t>https://cityofely.play-cricket.com/Teams/50532</t>
-  </si>
-  <si>
-    <t>Needingworth CC</t>
-  </si>
-  <si>
-    <t>https://needingworth.play-cricket.com/Teams/60631</t>
-  </si>
-  <si>
-    <t>Millfields</t>
-  </si>
-  <si>
-    <t>/grounds/4570</t>
-  </si>
-  <si>
-    <t>Newmarket CC</t>
-  </si>
-  <si>
-    <t>https://newmarketcricketclub.play-cricket.com/Teams/299109</t>
-  </si>
-  <si>
-    <t>Severals Sports Pavilion</t>
-  </si>
-  <si>
-    <t>/grounds/57255</t>
-  </si>
-  <si>
-    <t>St Ives Town &amp;amp; Warboys CC</t>
-  </si>
-  <si>
-    <t>https://stiveswarboys.play-cricket.com/Teams/238143</t>
-  </si>
-  <si>
-    <t>One Leisure Outdoor Centre</t>
-  </si>
-  <si>
-    <t>/grounds/54762</t>
-  </si>
-  <si>
-    <t>Sutton CC, Cambs</t>
-  </si>
-  <si>
-    <t>https://suttoncc.play-cricket.com/Teams/63723</t>
-  </si>
-  <si>
-    <t>Sutton Cricket Club</t>
-  </si>
-  <si>
-    <t>/grounds/5909</t>
-  </si>
-  <si>
-    <t>Telugu Association of Cambridge CC</t>
-  </si>
-  <si>
-    <t>https://tac.play-cricket.com/Teams/223446</t>
-  </si>
-  <si>
-    <t>Reach cricket ground</t>
-  </si>
-  <si>
-    <t>/grounds/53014</t>
-  </si>
-  <si>
-    <t>CCA Junior League 1 South</t>
-  </si>
-  <si>
-    <t>/website/division/109173</t>
-  </si>
-  <si>
-    <t>Bassingbourn CC</t>
-  </si>
-  <si>
-    <t>https://bassingbourn.play-cricket.com/Teams/75094</t>
-  </si>
-  <si>
-    <t>/grounds/8834</t>
-  </si>
-  <si>
-    <t>Cambridge NCI CC</t>
-  </si>
-  <si>
-    <t>https://ncissc.play-cricket.com/Teams/9822</t>
-  </si>
-  <si>
-    <t>Fitzwilliam College</t>
-  </si>
-  <si>
-    <t>/grounds/16629</t>
-  </si>
-  <si>
-    <t>Coton CC</t>
-  </si>
-  <si>
-    <t>https://coton.play-cricket.com/Teams/8328</t>
-  </si>
-  <si>
-    <t>Coton Recreation Ground</t>
-  </si>
-  <si>
-    <t>/grounds/22885</t>
-  </si>
-  <si>
-    <t>Elmdon CC</t>
-  </si>
-  <si>
-    <t>https://elmdoncc.play-cricket.com/Teams/51838</t>
-  </si>
-  <si>
-    <t>The Meadow</t>
-  </si>
-  <si>
-    <t>/grounds/2714</t>
-  </si>
-  <si>
-    <t>Foxton Granta CC</t>
-  </si>
-  <si>
-    <t>https://foxtongranta.play-cricket.com/Teams/297459</t>
-  </si>
-  <si>
-    <t>Great Chishill CC</t>
-  </si>
-  <si>
-    <t>https://gchishill.play-cricket.com/Teams/63027</t>
-  </si>
-  <si>
-    <t>The Playing Field</t>
-  </si>
-  <si>
-    <t>/grounds/7268</t>
-  </si>
-  <si>
-    <t>Ickleton CC</t>
-  </si>
-  <si>
-    <t>https://ickleton.play-cricket.com/Teams/165509</t>
-  </si>
-  <si>
-    <t>Ickleton Jubilee Oval</t>
-  </si>
-  <si>
-    <t>/grounds/43879</t>
-  </si>
-  <si>
-    <t>Little Shelford CC</t>
-  </si>
-  <si>
-    <t>https://littleshelford.play-cricket.com/Teams/19931</t>
-  </si>
-  <si>
-    <t>The Wale</t>
-  </si>
-  <si>
-    <t>/grounds/9216</t>
-  </si>
-  <si>
-    <t>Sawston and Babraham CC</t>
-  </si>
-  <si>
-    <t>https://sawstonbabraham.play-cricket.com/Teams/180943</t>
-  </si>
-  <si>
-    <t>Babraham Park</t>
-  </si>
-  <si>
-    <t>/grounds/47497</t>
-  </si>
-  <si>
-    <t>CCA Junior League 2 North</t>
-  </si>
-  <si>
-    <t>/website/division/109174</t>
-  </si>
-  <si>
-    <t>https://bluntisham.play-cricket.com/Teams/41729</t>
-  </si>
-  <si>
-    <t>Cam Kerala CC</t>
-  </si>
-  <si>
-    <t>https://camkerala.play-cricket.com/Teams/145322</t>
-  </si>
-  <si>
-    <t>Hills Road Sports &amp;amp; Tennis Centre Outdoor Cricket Ground</t>
-  </si>
-  <si>
-    <t>/grounds/20729</t>
-  </si>
-  <si>
-    <t>https://ncissc.play-cricket.com/Teams/20996</t>
-  </si>
-  <si>
-    <t>Parkers Piece</t>
-  </si>
-  <si>
-    <t>/grounds/11904</t>
-  </si>
-  <si>
-    <t>Fen Ditton CC</t>
-  </si>
-  <si>
-    <t>https://fenditton.play-cricket.com/Teams/9842</t>
-  </si>
-  <si>
-    <t>/grounds/3202</t>
-  </si>
-  <si>
-    <t>Godolphin CC</t>
-  </si>
-  <si>
-    <t>https://godolphin.play-cricket.com/Teams/92927</t>
-  </si>
-  <si>
-    <t>Godolphin Stables</t>
-  </si>
-  <si>
-    <t>/grounds/30724</t>
-  </si>
-  <si>
-    <t>Histon CC</t>
-  </si>
-  <si>
-    <t>https://histoncc.play-cricket.com/Teams/18968</t>
-  </si>
-  <si>
-    <t>Histon Recreation Ground</t>
-  </si>
-  <si>
-    <t>/grounds/10999</t>
-  </si>
-  <si>
-    <t>Kimbolton CC</t>
-  </si>
-  <si>
-    <t>https://kimbolton.play-cricket.com/Teams/207084</t>
-  </si>
-  <si>
-    <t>/grounds/13747</t>
-  </si>
-  <si>
-    <t>Little Downham CC</t>
-  </si>
-  <si>
-    <t>https://ldownham.play-cricket.com/Teams/53394</t>
-  </si>
-  <si>
-    <t>CCA Junior League 2 South</t>
-  </si>
-  <si>
-    <t>/website/division/109175</t>
-  </si>
-  <si>
-    <t>Ashdon CC</t>
-  </si>
-  <si>
-    <t>https://ashdon.play-cricket.com/Teams/8145</t>
-  </si>
-  <si>
-    <t>Waltons Park</t>
-  </si>
-  <si>
-    <t>/grounds/12671</t>
-  </si>
-  <si>
-    <t>Ashwell CC</t>
-  </si>
-  <si>
-    <t>https://ashwell.play-cricket.com/Teams/52157</t>
-  </si>
-  <si>
-    <t>Ashwell Recreation Ground</t>
-  </si>
-  <si>
-    <t>/grounds/2679</t>
-  </si>
-  <si>
-    <t>Aspenden, Standon &amp;amp; Puckeridge CC</t>
-  </si>
-  <si>
-    <t>https://asandp.play-cricket.com/Teams/64325</t>
-  </si>
-  <si>
-    <t>The Green</t>
-  </si>
-  <si>
-    <t>/grounds/15318</t>
-  </si>
-  <si>
-    <t>Barley CC, Cambs</t>
-  </si>
-  <si>
-    <t>https://barley.play-cricket.com/Teams/54034</t>
-  </si>
-  <si>
-    <t>Barley Cricket Ground</t>
-  </si>
-  <si>
-    <t>/grounds/3809</t>
-  </si>
-  <si>
-    <t>Barrington CC, Cambs</t>
-  </si>
-  <si>
-    <t>https://barringtoncambs.play-cricket.com/Teams/8027</t>
-  </si>
-  <si>
-    <t>The Pavilion</t>
-  </si>
-  <si>
-    <t>/grounds/11144</t>
-  </si>
-  <si>
-    <t>Birchanger CC</t>
-  </si>
-  <si>
-    <t>https://birchanger.play-cricket.com/Teams/85067</t>
-  </si>
-  <si>
-    <t>Great Shelford CC</t>
-  </si>
-  <si>
-    <t>https://gtshelford.play-cricket.com/Teams/61999</t>
-  </si>
-  <si>
-    <t>Great Shelford Recreation Ground</t>
-  </si>
-  <si>
-    <t>/grounds/23821</t>
-  </si>
-  <si>
-    <t>https://thriplow.play-cricket.com/Teams/51521</t>
-  </si>
-  <si>
-    <t>Whittlesford CC</t>
-  </si>
-  <si>
-    <t>https://whittlesford.play-cricket.com/Teams/34244</t>
-  </si>
-  <si>
-    <t>The Lawn</t>
-  </si>
-  <si>
-    <t>/grounds/9240</t>
-  </si>
-  <si>
-    <t>CCA Junior League 3 North</t>
-  </si>
-  <si>
-    <t>/website/division/109176</t>
-  </si>
-  <si>
-    <t>Burwell &amp;amp; Exning CC</t>
-  </si>
-  <si>
-    <t>https://burwellandexning.play-cricket.com/Teams/224865</t>
-  </si>
-  <si>
-    <t>Mingay Park</t>
-  </si>
-  <si>
-    <t>/grounds/52979</t>
-  </si>
-  <si>
-    <t>https://chatteriscc.play-cricket.com/Teams/50181</t>
-  </si>
-  <si>
-    <t>Cherry Hinton CC</t>
-  </si>
-  <si>
-    <t>https://cherryhinton.play-cricket.com/Teams/37744</t>
-  </si>
-  <si>
-    <t>Stow cum Quy Recreation Ground</t>
-  </si>
-  <si>
-    <t>/grounds/6886</t>
-  </si>
-  <si>
-    <t>Hemingford Park CC</t>
-  </si>
-  <si>
-    <t>https://hemingfordpark.play-cricket.com/Teams/144063</t>
-  </si>
-  <si>
-    <t>/grounds/14743</t>
-  </si>
-  <si>
-    <t>Over and Willingham CC</t>
-  </si>
-  <si>
-    <t>https://overandwillingham.play-cricket.com/Teams/299509</t>
-  </si>
-  <si>
-    <t>/grounds/58237</t>
-  </si>
-  <si>
-    <t>St Ives Town &amp;amp; Warboys CC</t>
-  </si>
-  <si>
-    <t>https://stiveswarboys.play-cricket.com/Teams/238144</t>
-  </si>
-  <si>
-    <t>Warboys Sports Field</t>
-  </si>
-  <si>
-    <t>/grounds/54763</t>
-  </si>
-  <si>
-    <t>https://tac.play-cricket.com/Teams/301364</t>
-  </si>
-  <si>
-    <t>Quy Recreation Ground</t>
-  </si>
-  <si>
-    <t>/grounds/57122</t>
-  </si>
-  <si>
-    <t>https://wilburton.play-cricket.com/Teams/146078</t>
-  </si>
-  <si>
-    <t>https://wisbech.play-cricket.com/Teams/14511</t>
-  </si>
-  <si>
-    <t>CCA Junior League 3 South</t>
-  </si>
-  <si>
-    <t>/website/division/109177</t>
-  </si>
-  <si>
-    <t>https://abington.play-cricket.com/Teams/29686</t>
-  </si>
-  <si>
-    <t>Balsham CC</t>
-  </si>
-  <si>
-    <t>https://balsham.play-cricket.com/Teams/11643</t>
-  </si>
-  <si>
-    <t>Burrough Green CC</t>
-  </si>
-  <si>
-    <t>https://burroughgreen.play-cricket.com/Teams/67522</t>
-  </si>
-  <si>
-    <t>Burrough Green Cricket Club</t>
-  </si>
-  <si>
-    <t>/grounds/16341</t>
-  </si>
-  <si>
-    <t>https://fulbourninstitute.play-cricket.com/Teams/32551</t>
-  </si>
-  <si>
-    <t>Haslingfield CC</t>
-  </si>
-  <si>
-    <t>https://haslingfield.play-cricket.com/Teams/60482</t>
-  </si>
-  <si>
-    <t>The Recreation Ground</t>
-  </si>
-  <si>
-    <t>/grounds/11237</t>
-  </si>
-  <si>
-    <t>Helions Bumpstead CC</t>
-  </si>
-  <si>
-    <t>https://helionsbumpstead.play-cricket.com/Teams/52924</t>
-  </si>
-  <si>
-    <t>https://lintonvillage.play-cricket.com/Teams/10414</t>
-  </si>
-  <si>
-    <t>https://littleshelford.play-cricket.com/Teams/192204</t>
-  </si>
-  <si>
-    <t>4th XI</t>
-  </si>
-  <si>
-    <t>https://saffronwalden.play-cricket.com/Teams/68750</t>
-  </si>
-  <si>
-    <t>Saffron Walden County High School</t>
-  </si>
-  <si>
-    <t>/grounds/3112</t>
-  </si>
-  <si>
-    <t>CCA Junior League 3 West</t>
-  </si>
-  <si>
-    <t>/website/division/109178</t>
-  </si>
-  <si>
-    <t>https://camkerala.play-cricket.com/Teams/206892</t>
-  </si>
-  <si>
-    <t>Hills Road Sports &amp;amp; Tennis Centre Outdoor Cricket Ground</t>
-  </si>
-  <si>
-    <t>https://cambournecc.play-cricket.com/Teams/104360</t>
-  </si>
-  <si>
-    <t>Lower Cambourne</t>
-  </si>
-  <si>
-    <t>/grounds/2721</t>
-  </si>
-  <si>
-    <t>https://cottenham.play-cricket.com/Teams/43227</t>
-  </si>
-  <si>
-    <t>Harlton CC</t>
-  </si>
-  <si>
-    <t>https://harlton.play-cricket.com/Teams/62414</t>
-  </si>
-  <si>
-    <t>The Angry Wasp Oval</t>
-  </si>
-  <si>
-    <t>/grounds/5983</t>
-  </si>
-  <si>
-    <t>Longstowe CC</t>
-  </si>
-  <si>
-    <t>https://longstowe.play-cricket.com/Teams/12700</t>
-  </si>
-  <si>
-    <t>Longstowe Village Hall</t>
-  </si>
-  <si>
-    <t>/grounds/11825</t>
-  </si>
-  <si>
-    <t>https://madingley.play-cricket.com/Teams/134617</t>
-  </si>
-  <si>
-    <t>Cambridge University Press</t>
-  </si>
-  <si>
-    <t>/grounds/58436</t>
-  </si>
-  <si>
-    <t>https://miltoncambs.play-cricket.com/Teams/9866</t>
-  </si>
-  <si>
-    <t>Stapleford CC</t>
-  </si>
-  <si>
-    <t>https://staplefordcc.play-cricket.com/Teams/277194</t>
-  </si>
-  <si>
-    <t>Stapleford Recreation Ground</t>
-  </si>
-  <si>
-    <t>/grounds/57726</t>
-  </si>
-  <si>
-    <t>Steeple Morden CC</t>
-  </si>
-  <si>
-    <t>https://steeplemorden.play-cricket.com/Teams/62226</t>
-  </si>
-  <si>
-    <t>CCA Junior League 4 North</t>
-  </si>
-  <si>
-    <t>/website/division/109179</t>
-  </si>
-  <si>
-    <t>Burwell &amp;amp; Exning CC</t>
-  </si>
-  <si>
-    <t>https://burwellandexning.play-cricket.com/Teams/224866</t>
-  </si>
-  <si>
-    <t>https://chippenhamcc.play-cricket.com/Teams/156531</t>
-  </si>
-  <si>
-    <t>https://cityofely.play-cricket.com/Teams/277192</t>
-  </si>
-  <si>
-    <t>Kings School, Ely</t>
-  </si>
-  <si>
-    <t>/grounds/57561</t>
-  </si>
-  <si>
-    <t>Haddenham CC, Cambs</t>
-  </si>
-  <si>
-    <t>https://haddenhamcambs.play-cricket.com/Teams/113500</t>
-  </si>
-  <si>
-    <t>Haddenham Recreation Ground</t>
-  </si>
-  <si>
-    <t>/grounds/56316</t>
-  </si>
-  <si>
-    <t>https://lpg.play-cricket.com/Teams/12245</t>
-  </si>
-  <si>
-    <t>https://suttoncc.play-cricket.com/Teams/63724</t>
-  </si>
-  <si>
-    <t>Wimblington CC</t>
-  </si>
-  <si>
-    <t>https://wimblington.play-cricket.com/Teams/60486</t>
-  </si>
-  <si>
-    <t>Parkfield</t>
-  </si>
-  <si>
-    <t>/grounds/4602</t>
-  </si>
-  <si>
-    <t>https://wisbech.play-cricket.com/Teams/81963</t>
-  </si>
-  <si>
-    <t>CCA Junior League 4 South</t>
-  </si>
-  <si>
-    <t>/website/division/109180</t>
-  </si>
-  <si>
-    <t>Audley End &amp;amp; Littlebury CC</t>
-  </si>
-  <si>
-    <t>https://audleyend.play-cricket.com/Teams/300117</t>
-  </si>
-  <si>
-    <t>https://birchanger.play-cricket.com/Teams/71201</t>
-  </si>
-  <si>
-    <t>https://buntingford.play-cricket.com/Teams/134497</t>
-  </si>
-  <si>
-    <t>https://elmdoncc.play-cricket.com/Teams/51839</t>
-  </si>
-  <si>
-    <t>https://ickleton.play-cricket.com/Teams/239150</t>
-  </si>
-  <si>
-    <t>Newton CC, Cambs</t>
-  </si>
-  <si>
-    <t>https://newton.play-cricket.com/Teams/51240</t>
-  </si>
-  <si>
-    <t>Newton CC</t>
-  </si>
-  <si>
-    <t>/grounds/32992</t>
-  </si>
-  <si>
-    <t>https://royston.play-cricket.com/Teams/145895</t>
-  </si>
-  <si>
-    <t>https://thriplow.play-cricket.com/Teams/78712</t>
-  </si>
-  <si>
-    <t>CCA Junior League 4 West</t>
-  </si>
-  <si>
-    <t>/website/division/109181</t>
-  </si>
-  <si>
-    <t>Bar Hill CC</t>
-  </si>
-  <si>
-    <t>https://barhill.play-cricket.com/Teams/13032</t>
-  </si>
-  <si>
-    <t>Bar Hill</t>
-  </si>
-  <si>
-    <t>/grounds/7920</t>
-  </si>
-  <si>
-    <t>https://ncissc.play-cricket.com/Teams/56245</t>
-  </si>
-  <si>
-    <t>https://cambstgiles.play-cricket.com/Teams/113042</t>
-  </si>
-  <si>
-    <t>https://camden.play-cricket.com/Teams/194665</t>
-  </si>
-  <si>
-    <t>Comberton CC</t>
-  </si>
-  <si>
-    <t>https://comberton.play-cricket.com/Teams/47643</t>
-  </si>
-  <si>
-    <t>Comberton Recreation Ground</t>
-  </si>
-  <si>
-    <t>/grounds/8801</t>
-  </si>
-  <si>
-    <t>Elsworth CC</t>
-  </si>
-  <si>
-    <t>https://elsworth.play-cricket.com/Teams/54003</t>
-  </si>
-  <si>
-    <t>Elsworth Cricket Ground</t>
-  </si>
-  <si>
-    <t>/grounds/37079</t>
-  </si>
-  <si>
-    <t>https://miltoncambs.play-cricket.com/Teams/9867</t>
-  </si>
-  <si>
-    <t>North Lodge Park</t>
-  </si>
-  <si>
-    <t>/grounds/51122</t>
-  </si>
-  <si>
-    <t>Northstowe CC</t>
-  </si>
-  <si>
-    <t>https://northstowe.play-cricket.com/Teams/291990</t>
-  </si>
-  <si>
-    <t>THE CLUB HOUSE</t>
-  </si>
-  <si>
-    <t>/grounds/58287</t>
-  </si>
-  <si>
-    <t>CCA Junior League 5 North</t>
-  </si>
-  <si>
-    <t>/website/division/109182</t>
-  </si>
-  <si>
-    <t>https://camkerala.play-cricket.com/Teams/257100</t>
-  </si>
-  <si>
-    <t>Hauxton Sports round</t>
-  </si>
-  <si>
-    <t>/grounds/55071</t>
-  </si>
-  <si>
-    <t>https://coton.play-cricket.com/Teams/179378</t>
-  </si>
-  <si>
-    <t>https://girton.play-cricket.com/Teams/42060</t>
-  </si>
-  <si>
-    <t>https://isleham.play-cricket.com/Teams/58941</t>
-  </si>
-  <si>
-    <t>https://marchtown.play-cricket.com/Teams/39644</t>
-  </si>
-  <si>
-    <t>Doddington Sports Pavillion</t>
-  </si>
-  <si>
-    <t>/grounds/38844</t>
-  </si>
-  <si>
-    <t>https://overandwillingham.play-cricket.com/Teams/299510</t>
-  </si>
-  <si>
-    <t>Willingham Recreation Ground</t>
-  </si>
-  <si>
-    <t>/grounds/58238</t>
-  </si>
-  <si>
-    <t>St Ives Town &amp;amp; Warboys CC</t>
-  </si>
-  <si>
-    <t>https://stiveswarboys.play-cricket.com/Teams/252176</t>
-  </si>
-  <si>
-    <t>CCA Junior League 5 South</t>
-  </si>
-  <si>
-    <t>/website/division/109183</t>
-  </si>
-  <si>
-    <t>https://barley.play-cricket.com/Teams/75008</t>
-  </si>
-  <si>
-    <t>https://bassingbourn.play-cricket.com/Teams/321042</t>
-  </si>
-  <si>
-    <t>https://cambournecc.play-cricket.com/Teams/146076</t>
-  </si>
-  <si>
-    <t>https://lintonvillage.play-cricket.com/Teams/105592</t>
-  </si>
-  <si>
-    <t>Weston Colville</t>
-  </si>
-  <si>
-    <t>/grounds/39485</t>
-  </si>
-  <si>
-    <t>https://newportessex.play-cricket.com/Teams/48329</t>
-  </si>
-  <si>
-    <t>https://sawstonbabraham.play-cricket.com/Teams/180944</t>
-  </si>
-  <si>
-    <t>https://whittlesford.play-cricket.com/Teams/34245</t>
+    <t>The Piece Ground, Wilburton</t>
   </si>
 </sst>
 </file>
@@ -2144,6 +1010,1563 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="2C7EE24B-C535-494D-AA97-0A61EE84BA40">
+  <dimension ref="A1:F91"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" x14ac:dyDescent="0.25" spans="1:5">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" x14ac:dyDescent="0.25" spans="1:5">
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" x14ac:dyDescent="0.25" spans="1:5">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" x14ac:dyDescent="0.25" spans="1:5">
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" x14ac:dyDescent="0.25" spans="1:5">
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" x14ac:dyDescent="0.25" spans="1:5">
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" x14ac:dyDescent="0.25" spans="1:5">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" x14ac:dyDescent="0.25" spans="1:5">
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" x14ac:dyDescent="0.25" spans="1:5">
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" x14ac:dyDescent="0.25" spans="1:5">
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" x14ac:dyDescent="0.25" spans="1:5">
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" x14ac:dyDescent="0.25" spans="1:5">
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" x14ac:dyDescent="0.25" spans="1:5">
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" x14ac:dyDescent="0.25" spans="1:5">
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" x14ac:dyDescent="0.25" spans="1:5">
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" x14ac:dyDescent="0.25" spans="1:5">
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" x14ac:dyDescent="0.25" spans="1:5">
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" x14ac:dyDescent="0.25" spans="1:5">
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" x14ac:dyDescent="0.25" spans="1:5">
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" x14ac:dyDescent="0.25" spans="1:5">
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" x14ac:dyDescent="0.25" spans="1:5">
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" x14ac:dyDescent="0.25" spans="1:5">
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" x14ac:dyDescent="0.25" spans="1:5">
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" x14ac:dyDescent="0.25" spans="1:5">
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" x14ac:dyDescent="0.25" spans="1:5">
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" x14ac:dyDescent="0.25" spans="1:5">
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" t="s">
+        <v>34</v>
+      </c>
+      <c r="F26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" x14ac:dyDescent="0.25" spans="1:5">
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" x14ac:dyDescent="0.25" spans="1:5">
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" t="s">
+        <v>34</v>
+      </c>
+      <c r="F28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" x14ac:dyDescent="0.25" spans="1:5">
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" t="s">
+        <v>38</v>
+      </c>
+      <c r="F29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" x14ac:dyDescent="0.25" spans="1:5">
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" t="s">
+        <v>38</v>
+      </c>
+      <c r="F30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" x14ac:dyDescent="0.25" spans="1:5">
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" t="s">
+        <v>38</v>
+      </c>
+      <c r="F31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" x14ac:dyDescent="0.25" spans="1:5">
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" t="s">
+        <v>38</v>
+      </c>
+      <c r="F32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" x14ac:dyDescent="0.25" spans="1:5">
+      <c r="B33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" t="s">
+        <v>38</v>
+      </c>
+      <c r="F33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" x14ac:dyDescent="0.25" spans="1:5">
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" t="s">
+        <v>38</v>
+      </c>
+      <c r="F34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" x14ac:dyDescent="0.25" spans="1:5">
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" t="s">
+        <v>38</v>
+      </c>
+      <c r="F35" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" x14ac:dyDescent="0.25" spans="1:5">
+      <c r="B36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" t="s">
+        <v>22</v>
+      </c>
+      <c r="E36" t="s">
+        <v>38</v>
+      </c>
+      <c r="F36" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" x14ac:dyDescent="0.25" spans="1:5">
+      <c r="B37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" t="s">
+        <v>24</v>
+      </c>
+      <c r="E37" t="s">
+        <v>38</v>
+      </c>
+      <c r="F37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" x14ac:dyDescent="0.25" spans="1:5">
+      <c r="B38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" t="s">
+        <v>47</v>
+      </c>
+      <c r="F38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" x14ac:dyDescent="0.25" spans="1:5">
+      <c r="B39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" t="s">
+        <v>47</v>
+      </c>
+      <c r="F39" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" x14ac:dyDescent="0.25" spans="1:5">
+      <c r="B40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" t="s">
+        <v>47</v>
+      </c>
+      <c r="F40" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" x14ac:dyDescent="0.25" spans="1:5">
+      <c r="B41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" t="s">
+        <v>47</v>
+      </c>
+      <c r="F41" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" x14ac:dyDescent="0.25" spans="1:5">
+      <c r="B42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" t="s">
+        <v>16</v>
+      </c>
+      <c r="E42" t="s">
+        <v>47</v>
+      </c>
+      <c r="F42" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" x14ac:dyDescent="0.25" spans="1:5">
+      <c r="B43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" t="s">
+        <v>18</v>
+      </c>
+      <c r="E43" t="s">
+        <v>47</v>
+      </c>
+      <c r="F43" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" x14ac:dyDescent="0.25" spans="1:5">
+      <c r="B44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" t="s">
+        <v>20</v>
+      </c>
+      <c r="E44" t="s">
+        <v>47</v>
+      </c>
+      <c r="F44" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" x14ac:dyDescent="0.25" spans="1:5">
+      <c r="B45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" t="s">
+        <v>22</v>
+      </c>
+      <c r="E45" t="s">
+        <v>47</v>
+      </c>
+      <c r="F45" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" x14ac:dyDescent="0.25" spans="1:5">
+      <c r="B46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" t="s">
+        <v>24</v>
+      </c>
+      <c r="E46" t="s">
+        <v>47</v>
+      </c>
+      <c r="F46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" x14ac:dyDescent="0.25" spans="1:5">
+      <c r="B47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47" t="s">
+        <v>48</v>
+      </c>
+      <c r="F47" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" x14ac:dyDescent="0.25" spans="1:5">
+      <c r="B48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" t="s">
+        <v>48</v>
+      </c>
+      <c r="F48" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" x14ac:dyDescent="0.25" spans="1:5">
+      <c r="B49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" t="s">
+        <v>48</v>
+      </c>
+      <c r="F49" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" x14ac:dyDescent="0.25" spans="1:5">
+      <c r="B50" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" t="s">
+        <v>16</v>
+      </c>
+      <c r="D50" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" t="s">
+        <v>48</v>
+      </c>
+      <c r="F50" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" x14ac:dyDescent="0.25" spans="1:5">
+      <c r="B51" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" t="s">
+        <v>16</v>
+      </c>
+      <c r="D51" t="s">
+        <v>14</v>
+      </c>
+      <c r="E51" t="s">
+        <v>48</v>
+      </c>
+      <c r="F51" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" x14ac:dyDescent="0.25" spans="1:5">
+      <c r="B52" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" t="s">
+        <v>16</v>
+      </c>
+      <c r="D52" t="s">
+        <v>18</v>
+      </c>
+      <c r="E52" t="s">
+        <v>48</v>
+      </c>
+      <c r="F52" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" x14ac:dyDescent="0.25" spans="1:5">
+      <c r="B53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" t="s">
+        <v>16</v>
+      </c>
+      <c r="D53" t="s">
+        <v>20</v>
+      </c>
+      <c r="E53" t="s">
+        <v>48</v>
+      </c>
+      <c r="F53" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54" x14ac:dyDescent="0.25" spans="1:5">
+      <c r="B54" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" t="s">
+        <v>16</v>
+      </c>
+      <c r="D54" t="s">
+        <v>22</v>
+      </c>
+      <c r="E54" t="s">
+        <v>48</v>
+      </c>
+      <c r="F54" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" x14ac:dyDescent="0.25" spans="1:5">
+      <c r="B55" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" t="s">
+        <v>16</v>
+      </c>
+      <c r="D55" t="s">
+        <v>24</v>
+      </c>
+      <c r="E55" t="s">
+        <v>48</v>
+      </c>
+      <c r="F55" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" x14ac:dyDescent="0.25" spans="1:5">
+      <c r="B56" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" t="s">
+        <v>18</v>
+      </c>
+      <c r="D56" t="s">
+        <v>6</v>
+      </c>
+      <c r="E56" t="s">
+        <v>49</v>
+      </c>
+      <c r="F56" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="57" x14ac:dyDescent="0.25" spans="1:5">
+      <c r="B57" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" t="s">
+        <v>18</v>
+      </c>
+      <c r="D57" t="s">
+        <v>7</v>
+      </c>
+      <c r="E57" t="s">
+        <v>49</v>
+      </c>
+      <c r="F57" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="58" x14ac:dyDescent="0.25" spans="1:5">
+      <c r="B58" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" t="s">
+        <v>18</v>
+      </c>
+      <c r="D58" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58" t="s">
+        <v>49</v>
+      </c>
+      <c r="F58" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="59" x14ac:dyDescent="0.25" spans="1:5">
+      <c r="B59" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" t="s">
+        <v>18</v>
+      </c>
+      <c r="D59" t="s">
+        <v>12</v>
+      </c>
+      <c r="E59" t="s">
+        <v>49</v>
+      </c>
+      <c r="F59" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="60" x14ac:dyDescent="0.25" spans="1:5">
+      <c r="B60" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60" t="s">
+        <v>18</v>
+      </c>
+      <c r="D60" t="s">
+        <v>14</v>
+      </c>
+      <c r="E60" t="s">
+        <v>49</v>
+      </c>
+      <c r="F60" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="61" x14ac:dyDescent="0.25" spans="1:5">
+      <c r="B61" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" t="s">
+        <v>18</v>
+      </c>
+      <c r="D61" t="s">
+        <v>16</v>
+      </c>
+      <c r="E61" t="s">
+        <v>49</v>
+      </c>
+      <c r="F61" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="62" x14ac:dyDescent="0.25" spans="1:5">
+      <c r="B62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" t="s">
+        <v>18</v>
+      </c>
+      <c r="D62" t="s">
+        <v>20</v>
+      </c>
+      <c r="E62" t="s">
+        <v>49</v>
+      </c>
+      <c r="F62" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="63" x14ac:dyDescent="0.25" spans="1:5">
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" t="s">
+        <v>18</v>
+      </c>
+      <c r="D63" t="s">
+        <v>22</v>
+      </c>
+      <c r="E63" t="s">
+        <v>49</v>
+      </c>
+      <c r="F63" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" x14ac:dyDescent="0.25" spans="1:5">
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" t="s">
+        <v>18</v>
+      </c>
+      <c r="D64" t="s">
+        <v>24</v>
+      </c>
+      <c r="E64" t="s">
+        <v>49</v>
+      </c>
+      <c r="F64" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="65" x14ac:dyDescent="0.25" spans="1:5">
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" t="s">
+        <v>20</v>
+      </c>
+      <c r="D65" t="s">
+        <v>6</v>
+      </c>
+      <c r="E65" t="s">
+        <v>50</v>
+      </c>
+      <c r="F65" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="66" x14ac:dyDescent="0.25" spans="1:5">
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" t="s">
+        <v>20</v>
+      </c>
+      <c r="D66" t="s">
+        <v>7</v>
+      </c>
+      <c r="E66" t="s">
+        <v>50</v>
+      </c>
+      <c r="F66" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" x14ac:dyDescent="0.25" spans="1:5">
+      <c r="B67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" t="s">
+        <v>20</v>
+      </c>
+      <c r="D67" t="s">
+        <v>10</v>
+      </c>
+      <c r="E67" t="s">
+        <v>50</v>
+      </c>
+      <c r="F67" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="68" x14ac:dyDescent="0.25" spans="1:5">
+      <c r="B68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" t="s">
+        <v>20</v>
+      </c>
+      <c r="D68" t="s">
+        <v>12</v>
+      </c>
+      <c r="E68" t="s">
+        <v>50</v>
+      </c>
+      <c r="F68" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="69" x14ac:dyDescent="0.25" spans="1:5">
+      <c r="B69" t="s">
+        <v>5</v>
+      </c>
+      <c r="C69" t="s">
+        <v>20</v>
+      </c>
+      <c r="D69" t="s">
+        <v>14</v>
+      </c>
+      <c r="E69" t="s">
+        <v>50</v>
+      </c>
+      <c r="F69" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="70" x14ac:dyDescent="0.25" spans="1:5">
+      <c r="B70" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70" t="s">
+        <v>20</v>
+      </c>
+      <c r="D70" t="s">
+        <v>16</v>
+      </c>
+      <c r="E70" t="s">
+        <v>50</v>
+      </c>
+      <c r="F70" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="71" x14ac:dyDescent="0.25" spans="1:5">
+      <c r="B71" t="s">
+        <v>5</v>
+      </c>
+      <c r="C71" t="s">
+        <v>20</v>
+      </c>
+      <c r="D71" t="s">
+        <v>18</v>
+      </c>
+      <c r="E71" t="s">
+        <v>50</v>
+      </c>
+      <c r="F71" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" x14ac:dyDescent="0.25" spans="1:5">
+      <c r="B72" t="s">
+        <v>5</v>
+      </c>
+      <c r="C72" t="s">
+        <v>20</v>
+      </c>
+      <c r="D72" t="s">
+        <v>22</v>
+      </c>
+      <c r="E72" t="s">
+        <v>50</v>
+      </c>
+      <c r="F72" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="73" x14ac:dyDescent="0.25" spans="1:5">
+      <c r="B73" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" t="s">
+        <v>20</v>
+      </c>
+      <c r="D73" t="s">
+        <v>24</v>
+      </c>
+      <c r="E73" t="s">
+        <v>50</v>
+      </c>
+      <c r="F73" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="74" x14ac:dyDescent="0.25" spans="1:5">
+      <c r="B74" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" t="s">
+        <v>22</v>
+      </c>
+      <c r="D74" t="s">
+        <v>6</v>
+      </c>
+      <c r="E74" t="s">
+        <v>51</v>
+      </c>
+      <c r="F74" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="75" x14ac:dyDescent="0.25" spans="1:5">
+      <c r="B75" t="s">
+        <v>5</v>
+      </c>
+      <c r="C75" t="s">
+        <v>22</v>
+      </c>
+      <c r="D75" t="s">
+        <v>7</v>
+      </c>
+      <c r="E75" t="s">
+        <v>51</v>
+      </c>
+      <c r="F75" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76" x14ac:dyDescent="0.25" spans="1:5">
+      <c r="B76" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76" t="s">
+        <v>22</v>
+      </c>
+      <c r="D76" t="s">
+        <v>10</v>
+      </c>
+      <c r="E76" t="s">
+        <v>51</v>
+      </c>
+      <c r="F76" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" x14ac:dyDescent="0.25" spans="1:5">
+      <c r="B77" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77" t="s">
+        <v>22</v>
+      </c>
+      <c r="D77" t="s">
+        <v>12</v>
+      </c>
+      <c r="E77" t="s">
+        <v>51</v>
+      </c>
+      <c r="F77" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="78" x14ac:dyDescent="0.25" spans="1:5">
+      <c r="B78" t="s">
+        <v>5</v>
+      </c>
+      <c r="C78" t="s">
+        <v>22</v>
+      </c>
+      <c r="D78" t="s">
+        <v>14</v>
+      </c>
+      <c r="E78" t="s">
+        <v>51</v>
+      </c>
+      <c r="F78" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="79" x14ac:dyDescent="0.25" spans="1:5">
+      <c r="B79" t="s">
+        <v>5</v>
+      </c>
+      <c r="C79" t="s">
+        <v>22</v>
+      </c>
+      <c r="D79" t="s">
+        <v>16</v>
+      </c>
+      <c r="E79" t="s">
+        <v>51</v>
+      </c>
+      <c r="F79" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="80" x14ac:dyDescent="0.25" spans="1:5">
+      <c r="B80" t="s">
+        <v>5</v>
+      </c>
+      <c r="C80" t="s">
+        <v>22</v>
+      </c>
+      <c r="D80" t="s">
+        <v>18</v>
+      </c>
+      <c r="E80" t="s">
+        <v>51</v>
+      </c>
+      <c r="F80" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="81" x14ac:dyDescent="0.25" spans="1:5">
+      <c r="B81" t="s">
+        <v>5</v>
+      </c>
+      <c r="C81" t="s">
+        <v>22</v>
+      </c>
+      <c r="D81" t="s">
+        <v>20</v>
+      </c>
+      <c r="E81" t="s">
+        <v>51</v>
+      </c>
+      <c r="F81" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82" x14ac:dyDescent="0.25" spans="1:5">
+      <c r="B82" t="s">
+        <v>5</v>
+      </c>
+      <c r="C82" t="s">
+        <v>22</v>
+      </c>
+      <c r="D82" t="s">
+        <v>24</v>
+      </c>
+      <c r="E82" t="s">
+        <v>51</v>
+      </c>
+      <c r="F82" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="83" x14ac:dyDescent="0.25" spans="1:5">
+      <c r="B83" t="s">
+        <v>5</v>
+      </c>
+      <c r="C83" t="s">
+        <v>24</v>
+      </c>
+      <c r="D83" t="s">
+        <v>6</v>
+      </c>
+      <c r="E83" t="s">
+        <v>52</v>
+      </c>
+      <c r="F83" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="84" x14ac:dyDescent="0.25" spans="1:5">
+      <c r="B84" t="s">
+        <v>5</v>
+      </c>
+      <c r="C84" t="s">
+        <v>24</v>
+      </c>
+      <c r="D84" t="s">
+        <v>7</v>
+      </c>
+      <c r="E84" t="s">
+        <v>52</v>
+      </c>
+      <c r="F84" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85" x14ac:dyDescent="0.25" spans="1:5">
+      <c r="B85" t="s">
+        <v>5</v>
+      </c>
+      <c r="C85" t="s">
+        <v>24</v>
+      </c>
+      <c r="D85" t="s">
+        <v>10</v>
+      </c>
+      <c r="E85" t="s">
+        <v>52</v>
+      </c>
+      <c r="F85" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="86" x14ac:dyDescent="0.25" spans="1:5">
+      <c r="B86" t="s">
+        <v>5</v>
+      </c>
+      <c r="C86" t="s">
+        <v>24</v>
+      </c>
+      <c r="D86" t="s">
+        <v>12</v>
+      </c>
+      <c r="E86" t="s">
+        <v>52</v>
+      </c>
+      <c r="F86" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="87" x14ac:dyDescent="0.25" spans="1:5">
+      <c r="B87" t="s">
+        <v>5</v>
+      </c>
+      <c r="C87" t="s">
+        <v>24</v>
+      </c>
+      <c r="D87" t="s">
+        <v>14</v>
+      </c>
+      <c r="E87" t="s">
+        <v>52</v>
+      </c>
+      <c r="F87" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="88" x14ac:dyDescent="0.25" spans="1:5">
+      <c r="B88" t="s">
+        <v>5</v>
+      </c>
+      <c r="C88" t="s">
+        <v>24</v>
+      </c>
+      <c r="D88" t="s">
+        <v>16</v>
+      </c>
+      <c r="E88" t="s">
+        <v>52</v>
+      </c>
+      <c r="F88" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="89" x14ac:dyDescent="0.25" spans="1:5">
+      <c r="B89" t="s">
+        <v>5</v>
+      </c>
+      <c r="C89" t="s">
+        <v>24</v>
+      </c>
+      <c r="D89" t="s">
+        <v>18</v>
+      </c>
+      <c r="E89" t="s">
+        <v>52</v>
+      </c>
+      <c r="F89" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="90" x14ac:dyDescent="0.25" spans="1:5">
+      <c r="B90" t="s">
+        <v>5</v>
+      </c>
+      <c r="C90" t="s">
+        <v>24</v>
+      </c>
+      <c r="D90" t="s">
+        <v>20</v>
+      </c>
+      <c r="E90" t="s">
+        <v>52</v>
+      </c>
+      <c r="F90" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" x14ac:dyDescent="0.25" spans="1:5">
+      <c r="B91" t="s">
+        <v>5</v>
+      </c>
+      <c r="C91" t="s">
+        <v>24</v>
+      </c>
+      <c r="D91" t="s">
+        <v>22</v>
+      </c>
+      <c r="E91" t="s">
+        <v>52</v>
+      </c>
+      <c r="F91" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/temp_sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="2C7EE24B-C535-494D-AA97-0A61EE84BA40">
   <dimension ref="A1:AG131"/>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -5129,7 +5552,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/temp_sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/temp_temp_sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2E3F4CA-5F35-6D44-9B1C-6901A7F5894D}">
   <dimension ref="A1:A3"/>
   <sheetViews>
@@ -5162,7 +5585,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/temp_sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/temp_temp_sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B299F7B0-BEA6-A346-B38A-7B2F08C53F84}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/output.xlsx
+++ b/output.xlsx
@@ -1,1702 +1,73 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sahbab01/cca/cca_fixtures/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB75EF63-92FE-8C4C-9249-5F3D2AA356AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="340" yWindow="2520" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
-    <sheet name="Grounds" sheetId="1" r:id="rId1"/>
+    <sheet name="CCA Senior League Division 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Grounds!$A$1:$AG$176</definedName>
-  </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19" count="19">
   <si>
-    <t>Division</t>
+    <t>Bluntisham CC - 1st XI</t>
   </si>
   <si>
-    <t>Div URL</t>
+    <t>Ramsey CC, Hunts - 2nd XI</t>
   </si>
   <si>
-    <t>Club</t>
+    <t>Horseheath CC - 1st XI</t>
   </si>
   <si>
-    <t>Team</t>
+    <t>City of Ely CC - 1st XI</t>
   </si>
   <si>
-    <t>Team URL</t>
+    <t>Wisbech Town CC - 2nd XI</t>
   </si>
   <si>
-    <t>Ground</t>
+    <t>Longstanton Grasshoppers CC - 1st XI</t>
   </si>
   <si>
-    <t>Ground URL</t>
+    <t>Thriplow CC - 1st XI</t>
   </si>
   <si>
-    <t>29/04/2023</t>
+    <t>Wilburton CC - 1st XI</t>
   </si>
   <si>
-    <t>06/05/2023</t>
+    <t>Fulbourn Institute CC - 1st XI</t>
   </si>
   <si>
-    <t>13/05/2023</t>
+    <t>Abington CC, Cambs - 1st XI</t>
   </si>
   <si>
-    <t>20/05/2023</t>
+    <t>-</t>
   </si>
   <si>
-    <t>27/05/2023</t>
+    <t>5.0</t>
   </si>
   <si>
-    <t>03/06/2023</t>
+    <t>15.0</t>
   </si>
   <si>
-    <t>10/06/2023</t>
+    <t>3.0</t>
   </si>
   <si>
-    <t>17/06/2023</t>
+    <t>10.0</t>
   </si>
   <si>
-    <t>24/06/2023</t>
+    <t>7.0</t>
   </si>
   <si>
-    <t>01/07/2023</t>
+    <t>11.0</t>
   </si>
   <si>
-    <t>08/07/2023</t>
+    <t>13.0</t>
   </si>
   <si>
-    <t>15/07/2023</t>
-  </si>
-  <si>
-    <t>22/07/2023</t>
-  </si>
-  <si>
-    <t>29/07/2023</t>
-  </si>
-  <si>
-    <t>05/08/2023</t>
-  </si>
-  <si>
-    <t>12/08/2023</t>
-  </si>
-  <si>
-    <t>19/08/2023</t>
-  </si>
-  <si>
-    <t>26/08/2023</t>
-  </si>
-  <si>
-    <t>02/09/2023</t>
-  </si>
-  <si>
-    <t>09/09/2023</t>
-  </si>
-  <si>
-    <t>16/09/2023</t>
-  </si>
-  <si>
-    <t>23/09/2023</t>
-  </si>
-  <si>
-    <t>30/09/2023</t>
-  </si>
-  <si>
-    <t>07/10/2023</t>
-  </si>
-  <si>
-    <t>14/10/2023</t>
-  </si>
-  <si>
-    <t>21/10/2023</t>
-  </si>
-  <si>
-    <t>CCA Senior League Division 1</t>
-  </si>
-  <si>
-    <t>/website/division/109169</t>
-  </si>
-  <si>
-    <t>Abington CC, Cambs</t>
-  </si>
-  <si>
-    <t>1st XI</t>
-  </si>
-  <si>
-    <t>https://abington.play-cricket.com/Teams/29732</t>
-  </si>
-  <si>
-    <t>Abington Cricket Ground</t>
-  </si>
-  <si>
-    <t>/grounds/13558</t>
-  </si>
-  <si>
-    <t>Bluntisham CC</t>
-  </si>
-  <si>
-    <t>https://bluntisham.play-cricket.com/Teams/41728</t>
-  </si>
-  <si>
-    <t>Bluntisham Recreation Ground</t>
-  </si>
-  <si>
-    <t>/grounds/13076</t>
-  </si>
-  <si>
-    <t>Chatteris CC</t>
-  </si>
-  <si>
-    <t>https://chatteriscc.play-cricket.com/Teams/50180</t>
-  </si>
-  <si>
-    <t>Fullers Cricket Ground</t>
-  </si>
-  <si>
-    <t>/grounds/48356</t>
-  </si>
-  <si>
-    <t>City of Ely CC</t>
-  </si>
-  <si>
-    <t>https://cityofely.play-cricket.com/Teams/23142</t>
-  </si>
-  <si>
-    <t>The Paradise Centre</t>
-  </si>
-  <si>
-    <t>/grounds/25056</t>
-  </si>
-  <si>
-    <t>Fulbourn Institute CC</t>
-  </si>
-  <si>
-    <t>https://fulbourninstitute.play-cricket.com/Teams/32550</t>
-  </si>
-  <si>
-    <t>Fulbourn Recreation Ground</t>
-  </si>
-  <si>
-    <t>/grounds/9770</t>
-  </si>
-  <si>
-    <t>Horseheath CC</t>
-  </si>
-  <si>
-    <t>https://horseheath.play-cricket.com/Teams/134360</t>
-  </si>
-  <si>
-    <t>Longstanton Grasshoppers CC</t>
-  </si>
-  <si>
-    <t>https://lpg.play-cricket.com/Teams/12244</t>
-  </si>
-  <si>
-    <t>Longstanton Recreation Ground</t>
-  </si>
-  <si>
-    <t>/grounds/12312</t>
-  </si>
-  <si>
-    <t>Royston CC, Cambs</t>
-  </si>
-  <si>
-    <t>https://royston.play-cricket.com/Teams/38757</t>
-  </si>
-  <si>
-    <t>Therfield Recreation Ground</t>
-  </si>
-  <si>
-    <t>/grounds/137</t>
-  </si>
-  <si>
-    <t>Wilbrahams CC</t>
-  </si>
-  <si>
-    <t>https://wilbrahams.play-cricket.com/Teams/61651</t>
-  </si>
-  <si>
-    <t>Wilbraham Recreation Ground CB21 5JG</t>
-  </si>
-  <si>
-    <t>/grounds/2654</t>
-  </si>
-  <si>
-    <t>Wisbech Town CC</t>
-  </si>
-  <si>
-    <t>2nd XI</t>
-  </si>
-  <si>
-    <t>https://wisbech.play-cricket.com/Teams/14510</t>
-  </si>
-  <si>
-    <t>/grounds/11646</t>
-  </si>
-  <si>
-    <t>CCA Senior League Division 2</t>
-  </si>
-  <si>
-    <t>/website/division/109170</t>
-  </si>
-  <si>
-    <t>Buntingford CC</t>
-  </si>
-  <si>
-    <t>https://buntingford.play-cricket.com/Teams/134496</t>
-  </si>
-  <si>
-    <t>Cambourne CC</t>
-  </si>
-  <si>
-    <t>https://cambournecc.play-cricket.com/Teams/71511</t>
-  </si>
-  <si>
-    <t>Upper Cambourne</t>
-  </si>
-  <si>
-    <t>/grounds/37673</t>
-  </si>
-  <si>
-    <t>Cambridge St. Giles CC</t>
-  </si>
-  <si>
-    <t>https://cambstgiles.play-cricket.com/Teams/41049</t>
-  </si>
-  <si>
-    <t>Dry Drayton Cricket Ground</t>
-  </si>
-  <si>
-    <t>/grounds/13335</t>
-  </si>
-  <si>
-    <t>Madingley CC</t>
-  </si>
-  <si>
-    <t>https://madingley.play-cricket.com/Teams/53396</t>
-  </si>
-  <si>
-    <t>Kings &amp;amp; Selwyn College</t>
-  </si>
-  <si>
-    <t>/grounds/35264</t>
-  </si>
-  <si>
-    <t>March Town CC</t>
-  </si>
-  <si>
-    <t>https://marchtown.play-cricket.com/Teams/35166</t>
-  </si>
-  <si>
-    <t>March Town Cricket Club</t>
-  </si>
-  <si>
-    <t>/grounds/10158</t>
-  </si>
-  <si>
-    <t>Milton CC, Cambs</t>
-  </si>
-  <si>
-    <t>https://miltoncambs.play-cricket.com/Teams/9865</t>
-  </si>
-  <si>
-    <t>Sycamores Recreation Ground</t>
-  </si>
-  <si>
-    <t>/grounds/12581</t>
-  </si>
-  <si>
-    <t>Ramsey CC, Hunts</t>
-  </si>
-  <si>
-    <t>https://ramseycchunts.play-cricket.com/Teams/78071</t>
-  </si>
-  <si>
-    <t>The Cricketfield</t>
-  </si>
-  <si>
-    <t>/grounds/14834</t>
-  </si>
-  <si>
-    <t>Saffron Walden CC</t>
-  </si>
-  <si>
-    <t>3rd XI</t>
-  </si>
-  <si>
-    <t>https://saffronwalden.play-cricket.com/Teams/72209</t>
-  </si>
-  <si>
-    <t>Thriplow CC</t>
-  </si>
-  <si>
-    <t>https://thriplow.play-cricket.com/Teams/51520</t>
-  </si>
-  <si>
-    <t>Cricket Meadow   SG8 7QU</t>
-  </si>
-  <si>
-    <t>/grounds/4585</t>
-  </si>
-  <si>
-    <t>Wilburton CC</t>
-  </si>
-  <si>
-    <t>https://wilburton.play-cricket.com/Teams/60408</t>
-  </si>
-  <si>
-    <t>The Piece Ground</t>
-  </si>
-  <si>
-    <t>/grounds/2191</t>
-  </si>
-  <si>
-    <t>CCA Senior League Division 3</t>
-  </si>
-  <si>
-    <t>/website/division/109171</t>
-  </si>
-  <si>
-    <t>Audley End &amp;amp; Littlebury CC</t>
-  </si>
-  <si>
-    <t>https://audleyend.play-cricket.com/Teams/71589</t>
-  </si>
-  <si>
-    <t>Cambridge Old Monks CC</t>
-  </si>
-  <si>
-    <t>https://cambridgeoldmonks.play-cricket.com/Teams/323460</t>
-  </si>
-  <si>
-    <t>Caldecote Recreation Ground</t>
-  </si>
-  <si>
-    <t>/grounds/58898</t>
-  </si>
-  <si>
-    <t>Chesterfords CC</t>
-  </si>
-  <si>
-    <t>https://chesterfords.play-cricket.com/Teams/132997</t>
-  </si>
-  <si>
-    <t>Great Chesterford Recreation Ground</t>
-  </si>
-  <si>
-    <t>/grounds/29740</t>
-  </si>
-  <si>
-    <t>Cottenham CC</t>
-  </si>
-  <si>
-    <t>https://cottenham.play-cricket.com/Teams/43226</t>
-  </si>
-  <si>
-    <t>Girton CC</t>
-  </si>
-  <si>
-    <t>https://girton.play-cricket.com/Teams/42059</t>
-  </si>
-  <si>
-    <t>Girton Cricket Club</t>
-  </si>
-  <si>
-    <t>/grounds/6670</t>
-  </si>
-  <si>
-    <t>Isleham CC</t>
-  </si>
-  <si>
-    <t>https://isleham.play-cricket.com/Teams/58940</t>
-  </si>
-  <si>
-    <t>Isleham Recreation Ground</t>
-  </si>
-  <si>
-    <t>/grounds/3773</t>
-  </si>
-  <si>
-    <t>Linton Village CC</t>
-  </si>
-  <si>
-    <t>https://lintonvillage.play-cricket.com/Teams/9962</t>
-  </si>
-  <si>
-    <t>Recreation Ground</t>
-  </si>
-  <si>
-    <t>/grounds/5934</t>
-  </si>
-  <si>
-    <t>Newport CC, Essex</t>
-  </si>
-  <si>
-    <t>https://newportessex.play-cricket.com/Teams/48330</t>
-  </si>
-  <si>
-    <t>Rickling Ramblers CC</t>
-  </si>
-  <si>
-    <t>https://ricklingramblers.play-cricket.com/Teams/8407</t>
-  </si>
-  <si>
-    <t>/grounds/7661</t>
-  </si>
-  <si>
-    <t>CCA Junior League 1 North</t>
-  </si>
-  <si>
-    <t>/website/division/109172</t>
-  </si>
-  <si>
-    <t>Bottisham-Lode CC</t>
-  </si>
-  <si>
-    <t>https://bottishamlode.play-cricket.com/Teams/60932</t>
-  </si>
-  <si>
-    <t>Fassage Hall</t>
-  </si>
-  <si>
-    <t>/grounds/9660</t>
-  </si>
-  <si>
-    <t>Camden CC</t>
-  </si>
-  <si>
-    <t>https://camden.play-cricket.com/Teams/14204</t>
-  </si>
-  <si>
-    <t>Queens and Robinson</t>
-  </si>
-  <si>
-    <t>/grounds/38883</t>
-  </si>
-  <si>
-    <t>Chippenham CC, Cambs</t>
-  </si>
-  <si>
-    <t>https://chippenhamcc.play-cricket.com/Teams/119246</t>
-  </si>
-  <si>
-    <t>Chippenham Park</t>
-  </si>
-  <si>
-    <t>/grounds/9202</t>
-  </si>
-  <si>
-    <t>https://cityofely.play-cricket.com/Teams/50532</t>
-  </si>
-  <si>
-    <t>Needingworth CC</t>
-  </si>
-  <si>
-    <t>https://needingworth.play-cricket.com/Teams/60631</t>
-  </si>
-  <si>
-    <t>Millfields</t>
-  </si>
-  <si>
-    <t>/grounds/4570</t>
-  </si>
-  <si>
-    <t>Newmarket CC</t>
-  </si>
-  <si>
-    <t>https://newmarketcricketclub.play-cricket.com/Teams/299109</t>
-  </si>
-  <si>
-    <t>Dullingham Sports Field</t>
-  </si>
-  <si>
-    <t>/grounds/57255</t>
-  </si>
-  <si>
-    <t>St Ives Town &amp;amp; Warboys CC</t>
-  </si>
-  <si>
-    <t>https://stiveswarboys.play-cricket.com/Teams/238143</t>
-  </si>
-  <si>
-    <t>One Leisure Outdoor Centre</t>
-  </si>
-  <si>
-    <t>/grounds/54762</t>
-  </si>
-  <si>
-    <t>Sutton CC, Cambs</t>
-  </si>
-  <si>
-    <t>https://suttoncc.play-cricket.com/Teams/63723</t>
-  </si>
-  <si>
-    <t>Sutton Cricket Club</t>
-  </si>
-  <si>
-    <t>/grounds/5909</t>
-  </si>
-  <si>
-    <t>Telugu Association of Cambridge CC</t>
-  </si>
-  <si>
-    <t>https://tac.play-cricket.com/Teams/223446</t>
-  </si>
-  <si>
-    <t>Reach cricket ground</t>
-  </si>
-  <si>
-    <t>/grounds/53014</t>
-  </si>
-  <si>
-    <t>CCA Junior League 1 South</t>
-  </si>
-  <si>
-    <t>/website/division/109173</t>
-  </si>
-  <si>
-    <t>Bassingbourn CC</t>
-  </si>
-  <si>
-    <t>https://bassingbourn.play-cricket.com/Teams/75094</t>
-  </si>
-  <si>
-    <t>/grounds/8834</t>
-  </si>
-  <si>
-    <t>Cambridge NCI CC</t>
-  </si>
-  <si>
-    <t>https://ncissc.play-cricket.com/Teams/9822</t>
-  </si>
-  <si>
-    <t>Fitzwilliam College</t>
-  </si>
-  <si>
-    <t>/grounds/16629</t>
-  </si>
-  <si>
-    <t>Coton CC</t>
-  </si>
-  <si>
-    <t>https://coton.play-cricket.com/Teams/8328</t>
-  </si>
-  <si>
-    <t>Coton Recreation Ground</t>
-  </si>
-  <si>
-    <t>/grounds/22885</t>
-  </si>
-  <si>
-    <t>Elmdon CC</t>
-  </si>
-  <si>
-    <t>https://elmdoncc.play-cricket.com/Teams/51838</t>
-  </si>
-  <si>
-    <t>The Meadow</t>
-  </si>
-  <si>
-    <t>/grounds/2714</t>
-  </si>
-  <si>
-    <t>Foxton Granta CC</t>
-  </si>
-  <si>
-    <t>https://foxtongranta.play-cricket.com/Teams/297459</t>
-  </si>
-  <si>
-    <t>Great Chishill CC</t>
-  </si>
-  <si>
-    <t>https://gchishill.play-cricket.com/Teams/63027</t>
-  </si>
-  <si>
-    <t>The Playing Field</t>
-  </si>
-  <si>
-    <t>/grounds/7268</t>
-  </si>
-  <si>
-    <t>Ickleton CC</t>
-  </si>
-  <si>
-    <t>https://ickleton.play-cricket.com/Teams/165509</t>
-  </si>
-  <si>
-    <t>Ickleton Jubilee Oval</t>
-  </si>
-  <si>
-    <t>/grounds/43879</t>
-  </si>
-  <si>
-    <t>Little Shelford CC</t>
-  </si>
-  <si>
-    <t>https://littleshelford.play-cricket.com/Teams/19931</t>
-  </si>
-  <si>
-    <t>The Wale</t>
-  </si>
-  <si>
-    <t>/grounds/9216</t>
-  </si>
-  <si>
-    <t>Sawston and Babraham CC</t>
-  </si>
-  <si>
-    <t>https://sawstonbabraham.play-cricket.com/Teams/180943</t>
-  </si>
-  <si>
-    <t>Babraham Park</t>
-  </si>
-  <si>
-    <t>/grounds/47497</t>
-  </si>
-  <si>
-    <t>CCA Junior League 2 North</t>
-  </si>
-  <si>
-    <t>/website/division/109174</t>
-  </si>
-  <si>
-    <t>https://bluntisham.play-cricket.com/Teams/41729</t>
-  </si>
-  <si>
-    <t>Cam Kerala CC</t>
-  </si>
-  <si>
-    <t>https://camkerala.play-cricket.com/Teams/145322</t>
-  </si>
-  <si>
-    <t>https://ncissc.play-cricket.com/Teams/20996</t>
-  </si>
-  <si>
-    <t>Parkers Piece</t>
-  </si>
-  <si>
-    <t>/grounds/11904</t>
-  </si>
-  <si>
-    <t>Fen Ditton CC</t>
-  </si>
-  <si>
-    <t>https://fenditton.play-cricket.com/Teams/9842</t>
-  </si>
-  <si>
-    <t>/grounds/3202</t>
-  </si>
-  <si>
-    <t>Godolphin CC</t>
-  </si>
-  <si>
-    <t>https://godolphin.play-cricket.com/Teams/92927</t>
-  </si>
-  <si>
-    <t>Godolphin Stables</t>
-  </si>
-  <si>
-    <t>/grounds/30724</t>
-  </si>
-  <si>
-    <t>Histon CC</t>
-  </si>
-  <si>
-    <t>https://histoncc.play-cricket.com/Teams/18968</t>
-  </si>
-  <si>
-    <t>Histon Recreation Ground</t>
-  </si>
-  <si>
-    <t>/grounds/10999</t>
-  </si>
-  <si>
-    <t>Kimbolton CC</t>
-  </si>
-  <si>
-    <t>https://kimbolton.play-cricket.com/Teams/207084</t>
-  </si>
-  <si>
-    <t>/grounds/13747</t>
-  </si>
-  <si>
-    <t>Little Downham CC</t>
-  </si>
-  <si>
-    <t>https://ldownham.play-cricket.com/Teams/53394</t>
-  </si>
-  <si>
-    <t>https://tac.play-cricket.com/Teams/257098</t>
-  </si>
-  <si>
-    <t>CCA Junior League 2 South</t>
-  </si>
-  <si>
-    <t>/website/division/109175</t>
-  </si>
-  <si>
-    <t>Ashdon CC</t>
-  </si>
-  <si>
-    <t>https://ashdon.play-cricket.com/Teams/8145</t>
-  </si>
-  <si>
-    <t>Waltons Park</t>
-  </si>
-  <si>
-    <t>/grounds/12671</t>
-  </si>
-  <si>
-    <t>Ashwell CC</t>
-  </si>
-  <si>
-    <t>https://ashwell.play-cricket.com/Teams/52157</t>
-  </si>
-  <si>
-    <t>Ashwell Recreation Ground</t>
-  </si>
-  <si>
-    <t>/grounds/2679</t>
-  </si>
-  <si>
-    <t>Aspenden, Standon &amp;amp; Puckeridge CC</t>
-  </si>
-  <si>
-    <t>https://asandp.play-cricket.com/Teams/64325</t>
-  </si>
-  <si>
-    <t>The Green</t>
-  </si>
-  <si>
-    <t>/grounds/15318</t>
-  </si>
-  <si>
-    <t>Barley CC, Cambs</t>
-  </si>
-  <si>
-    <t>https://barley.play-cricket.com/Teams/54034</t>
-  </si>
-  <si>
-    <t>Barley Cricket Ground</t>
-  </si>
-  <si>
-    <t>/grounds/3809</t>
-  </si>
-  <si>
-    <t>Barrington CC, Cambs</t>
-  </si>
-  <si>
-    <t>https://barringtoncambs.play-cricket.com/Teams/8027</t>
-  </si>
-  <si>
-    <t>The Pavilion</t>
-  </si>
-  <si>
-    <t>/grounds/11144</t>
-  </si>
-  <si>
-    <t>Birchanger CC</t>
-  </si>
-  <si>
-    <t>https://birchanger.play-cricket.com/Teams/85067</t>
-  </si>
-  <si>
-    <t>Great Shelford CC</t>
-  </si>
-  <si>
-    <t>https://gtshelford.play-cricket.com/Teams/61999</t>
-  </si>
-  <si>
-    <t>Great Shelford Recreation Ground</t>
-  </si>
-  <si>
-    <t>/grounds/23821</t>
-  </si>
-  <si>
-    <t>https://thriplow.play-cricket.com/Teams/51521</t>
-  </si>
-  <si>
-    <t>Whittlesford CC</t>
-  </si>
-  <si>
-    <t>https://whittlesford.play-cricket.com/Teams/34244</t>
-  </si>
-  <si>
-    <t>The Lawn</t>
-  </si>
-  <si>
-    <t>/grounds/9240</t>
-  </si>
-  <si>
-    <t>CCA Junior League 3 North</t>
-  </si>
-  <si>
-    <t>/website/division/109176</t>
-  </si>
-  <si>
-    <t>Burwell &amp;amp; Exning CC</t>
-  </si>
-  <si>
-    <t>https://burwellandexning.play-cricket.com/Teams/224865</t>
-  </si>
-  <si>
-    <t>Mingay Park</t>
-  </si>
-  <si>
-    <t>/grounds/52979</t>
-  </si>
-  <si>
-    <t>https://chatteriscc.play-cricket.com/Teams/50181</t>
-  </si>
-  <si>
-    <t>Cherry Hinton CC</t>
-  </si>
-  <si>
-    <t>https://cherryhinton.play-cricket.com/Teams/37744</t>
-  </si>
-  <si>
-    <t>Stow cum Quy Recreation Ground</t>
-  </si>
-  <si>
-    <t>/grounds/6886</t>
-  </si>
-  <si>
-    <t>Hemingford Park CC</t>
-  </si>
-  <si>
-    <t>https://hemingfordpark.play-cricket.com/Teams/144063</t>
-  </si>
-  <si>
-    <t>/grounds/14743</t>
-  </si>
-  <si>
-    <t>Over and Willingham CC</t>
-  </si>
-  <si>
-    <t>https://overandwillingham.play-cricket.com/Teams/299509</t>
-  </si>
-  <si>
-    <t>/grounds/58237</t>
-  </si>
-  <si>
-    <t>https://stiveswarboys.play-cricket.com/Teams/238144</t>
-  </si>
-  <si>
-    <t>Warboys Sports Field</t>
-  </si>
-  <si>
-    <t>/grounds/54763</t>
-  </si>
-  <si>
-    <t>https://tac.play-cricket.com/Teams/301364</t>
-  </si>
-  <si>
-    <t>Quy Recreation Ground</t>
-  </si>
-  <si>
-    <t>/grounds/57122</t>
-  </si>
-  <si>
-    <t>https://wilburton.play-cricket.com/Teams/146078</t>
-  </si>
-  <si>
-    <t>https://wisbech.play-cricket.com/Teams/14511</t>
-  </si>
-  <si>
-    <t>CCA Junior League 3 South</t>
-  </si>
-  <si>
-    <t>/website/division/109177</t>
-  </si>
-  <si>
-    <t>https://abington.play-cricket.com/Teams/29686</t>
-  </si>
-  <si>
-    <t>Balsham CC</t>
-  </si>
-  <si>
-    <t>https://balsham.play-cricket.com/Teams/11643</t>
-  </si>
-  <si>
-    <t>Burrough Green CC</t>
-  </si>
-  <si>
-    <t>https://burroughgreen.play-cricket.com/Teams/67522</t>
-  </si>
-  <si>
-    <t>Burrough Green Cricket Club</t>
-  </si>
-  <si>
-    <t>/grounds/16341</t>
-  </si>
-  <si>
-    <t>https://fulbourninstitute.play-cricket.com/Teams/32551</t>
-  </si>
-  <si>
-    <t>Haslingfield CC</t>
-  </si>
-  <si>
-    <t>https://haslingfield.play-cricket.com/Teams/60482</t>
-  </si>
-  <si>
-    <t>The Recreation Ground</t>
-  </si>
-  <si>
-    <t>/grounds/11237</t>
-  </si>
-  <si>
-    <t>Helions Bumpstead CC</t>
-  </si>
-  <si>
-    <t>https://helionsbumpstead.play-cricket.com/Teams/52924</t>
-  </si>
-  <si>
-    <t>https://lintonvillage.play-cricket.com/Teams/10414</t>
-  </si>
-  <si>
-    <t>https://littleshelford.play-cricket.com/Teams/192204</t>
-  </si>
-  <si>
-    <t>4th XI</t>
-  </si>
-  <si>
-    <t>https://saffronwalden.play-cricket.com/Teams/68750</t>
-  </si>
-  <si>
-    <t>Saffron Walden County High School</t>
-  </si>
-  <si>
-    <t>/grounds/3112</t>
-  </si>
-  <si>
-    <t>CCA Junior League 3 West</t>
-  </si>
-  <si>
-    <t>/website/division/109178</t>
-  </si>
-  <si>
-    <t>https://camkerala.play-cricket.com/Teams/206892</t>
-  </si>
-  <si>
-    <t>https://cambournecc.play-cricket.com/Teams/104360</t>
-  </si>
-  <si>
-    <t>Lower Cambourne</t>
-  </si>
-  <si>
-    <t>/grounds/2721</t>
-  </si>
-  <si>
-    <t>https://cottenham.play-cricket.com/Teams/43227</t>
-  </si>
-  <si>
-    <t>Harlton CC</t>
-  </si>
-  <si>
-    <t>https://harlton.play-cricket.com/Teams/62414</t>
-  </si>
-  <si>
-    <t>The Angry Wasp Oval</t>
-  </si>
-  <si>
-    <t>/grounds/5983</t>
-  </si>
-  <si>
-    <t>Longstowe CC</t>
-  </si>
-  <si>
-    <t>https://longstowe.play-cricket.com/Teams/12700</t>
-  </si>
-  <si>
-    <t>Longstowe Village Hall</t>
-  </si>
-  <si>
-    <t>/grounds/11825</t>
-  </si>
-  <si>
-    <t>https://madingley.play-cricket.com/Teams/134617</t>
-  </si>
-  <si>
-    <t>Cambridge University Press</t>
-  </si>
-  <si>
-    <t>/grounds/58436</t>
-  </si>
-  <si>
-    <t>https://miltoncambs.play-cricket.com/Teams/9866</t>
-  </si>
-  <si>
-    <t>Stapleford CC</t>
-  </si>
-  <si>
-    <t>https://staplefordcc.play-cricket.com/Teams/277194</t>
-  </si>
-  <si>
-    <t>Stapleford Recreation Ground</t>
-  </si>
-  <si>
-    <t>/grounds/57726</t>
-  </si>
-  <si>
-    <t>Steeple Morden CC</t>
-  </si>
-  <si>
-    <t>https://steeplemorden.play-cricket.com/Teams/62226</t>
-  </si>
-  <si>
-    <t>CCA Junior League 4 North</t>
-  </si>
-  <si>
-    <t>/website/division/109179</t>
-  </si>
-  <si>
-    <t>https://burwellandexning.play-cricket.com/Teams/224866</t>
-  </si>
-  <si>
-    <t>https://chippenhamcc.play-cricket.com/Teams/156531</t>
-  </si>
-  <si>
-    <t>https://cityofely.play-cricket.com/Teams/277192</t>
-  </si>
-  <si>
-    <t>Kings School, Ely</t>
-  </si>
-  <si>
-    <t>/grounds/57561</t>
-  </si>
-  <si>
-    <t>Haddenham CC, Cambs</t>
-  </si>
-  <si>
-    <t>https://haddenhamcambs.play-cricket.com/Teams/113500</t>
-  </si>
-  <si>
-    <t>Haddenham Recreation Ground</t>
-  </si>
-  <si>
-    <t>/grounds/56316</t>
-  </si>
-  <si>
-    <t>https://lpg.play-cricket.com/Teams/12245</t>
-  </si>
-  <si>
-    <t>https://suttoncc.play-cricket.com/Teams/63724</t>
-  </si>
-  <si>
-    <t>Wimblington CC</t>
-  </si>
-  <si>
-    <t>https://wimblington.play-cricket.com/Teams/60486</t>
-  </si>
-  <si>
-    <t>Parkfield</t>
-  </si>
-  <si>
-    <t>/grounds/4602</t>
-  </si>
-  <si>
-    <t>https://wisbech.play-cricket.com/Teams/81963</t>
-  </si>
-  <si>
-    <t>CCA Junior League 4 South</t>
-  </si>
-  <si>
-    <t>/website/division/109180</t>
-  </si>
-  <si>
-    <t>https://audleyend.play-cricket.com/Teams/300117</t>
-  </si>
-  <si>
-    <t>https://birchanger.play-cricket.com/Teams/71201</t>
-  </si>
-  <si>
-    <t>https://buntingford.play-cricket.com/Teams/134497</t>
-  </si>
-  <si>
-    <t>https://elmdoncc.play-cricket.com/Teams/51839</t>
-  </si>
-  <si>
-    <t>https://ickleton.play-cricket.com/Teams/239150</t>
-  </si>
-  <si>
-    <t>Newton CC, Cambs</t>
-  </si>
-  <si>
-    <t>https://newton.play-cricket.com/Teams/51240</t>
-  </si>
-  <si>
-    <t>Newton CC</t>
-  </si>
-  <si>
-    <t>/grounds/32992</t>
-  </si>
-  <si>
-    <t>https://royston.play-cricket.com/Teams/145895</t>
-  </si>
-  <si>
-    <t>https://thriplow.play-cricket.com/Teams/78712</t>
-  </si>
-  <si>
-    <t>CCA Junior League 4 West</t>
-  </si>
-  <si>
-    <t>/website/division/109181</t>
-  </si>
-  <si>
-    <t>Bar Hill CC</t>
-  </si>
-  <si>
-    <t>https://barhill.play-cricket.com/Teams/13032</t>
-  </si>
-  <si>
-    <t>Bar Hill</t>
-  </si>
-  <si>
-    <t>/grounds/7920</t>
-  </si>
-  <si>
-    <t>https://camkerala.play-cricket.com/Teams/257100</t>
-  </si>
-  <si>
-    <t>Hauxton Sports round</t>
-  </si>
-  <si>
-    <t>/grounds/55071</t>
-  </si>
-  <si>
-    <t>https://ncissc.play-cricket.com/Teams/56245</t>
-  </si>
-  <si>
-    <t>https://cambstgiles.play-cricket.com/Teams/113042</t>
-  </si>
-  <si>
-    <t>https://camden.play-cricket.com/Teams/194665</t>
-  </si>
-  <si>
-    <t>Comberton CC</t>
-  </si>
-  <si>
-    <t>https://comberton.play-cricket.com/Teams/47643</t>
-  </si>
-  <si>
-    <t>Comberton Recreation Ground</t>
-  </si>
-  <si>
-    <t>/grounds/8801</t>
-  </si>
-  <si>
-    <t>Elsworth CC</t>
-  </si>
-  <si>
-    <t>https://elsworth.play-cricket.com/Teams/54003</t>
-  </si>
-  <si>
-    <t>Elsworth Cricket Ground</t>
-  </si>
-  <si>
-    <t>/grounds/37079</t>
-  </si>
-  <si>
-    <t>https://miltoncambs.play-cricket.com/Teams/9867</t>
-  </si>
-  <si>
-    <t>North Lodge Park</t>
-  </si>
-  <si>
-    <t>/grounds/51122</t>
-  </si>
-  <si>
-    <t>Northstowe CC</t>
-  </si>
-  <si>
-    <t>https://northstowe.play-cricket.com/Teams/291990</t>
-  </si>
-  <si>
-    <t>THE CLUB HOUSE</t>
-  </si>
-  <si>
-    <t>/grounds/58287</t>
-  </si>
-  <si>
-    <t>CCA Junior League 5 North</t>
-  </si>
-  <si>
-    <t>/website/division/109182</t>
-  </si>
-  <si>
-    <t>https://coton.play-cricket.com/Teams/179378</t>
-  </si>
-  <si>
-    <t>Fordham CC</t>
-  </si>
-  <si>
-    <t>https://fordham.play-cricket.com/Teams/37960</t>
-  </si>
-  <si>
-    <t>/grounds/13417</t>
-  </si>
-  <si>
-    <t>https://girton.play-cricket.com/Teams/42060</t>
-  </si>
-  <si>
-    <t>https://isleham.play-cricket.com/Teams/58941</t>
-  </si>
-  <si>
-    <t>https://marchtown.play-cricket.com/Teams/39644</t>
-  </si>
-  <si>
-    <t>/grounds/59008</t>
-  </si>
-  <si>
-    <t>https://overandwillingham.play-cricket.com/Teams/299510</t>
-  </si>
-  <si>
-    <t>Willingham Recreation Ground</t>
-  </si>
-  <si>
-    <t>/grounds/58238</t>
-  </si>
-  <si>
-    <t>https://stiveswarboys.play-cricket.com/Teams/252176</t>
-  </si>
-  <si>
-    <t>CCA Junior League 5 South</t>
-  </si>
-  <si>
-    <t>/website/division/109183</t>
-  </si>
-  <si>
-    <t>https://barley.play-cricket.com/Teams/75008</t>
-  </si>
-  <si>
-    <t>https://bassingbourn.play-cricket.com/Teams/321042</t>
-  </si>
-  <si>
-    <t>https://cambournecc.play-cricket.com/Teams/146076</t>
-  </si>
-  <si>
-    <t>https://lintonvillage.play-cricket.com/Teams/105592</t>
-  </si>
-  <si>
-    <t>Weston Colville</t>
-  </si>
-  <si>
-    <t>/grounds/39485</t>
-  </si>
-  <si>
-    <t>https://newportessex.play-cricket.com/Teams/48329</t>
-  </si>
-  <si>
-    <t>https://sawstonbabraham.play-cricket.com/Teams/180944</t>
-  </si>
-  <si>
-    <t>https://whittlesford.play-cricket.com/Teams/34245</t>
-  </si>
-  <si>
-    <t>CCA Women’s Hardball League Div 1S</t>
-  </si>
-  <si>
-    <t>/website/division/111288</t>
-  </si>
-  <si>
-    <t>City of Cambridge CC</t>
-  </si>
-  <si>
-    <t>Womens 1st XI</t>
-  </si>
-  <si>
-    <t>https://cityofcambridge.play-cricket.com/Teams/327680</t>
-  </si>
-  <si>
-    <t>Haverhill CC</t>
-  </si>
-  <si>
-    <t>Ladies XI</t>
-  </si>
-  <si>
-    <t>https://haverhill.play-cricket.com/Teams/291144</t>
-  </si>
-  <si>
-    <t>Haverhill Cricket Club</t>
-  </si>
-  <si>
-    <t>/grounds/20828</t>
-  </si>
-  <si>
-    <t>Women and Girls 1st XI</t>
-  </si>
-  <si>
-    <t>https://saffronwalden.play-cricket.com/Teams/106988</t>
-  </si>
-  <si>
-    <t>https://thriplow.play-cricket.com/Teams/161167</t>
-  </si>
-  <si>
-    <t>CCA Women’s Hardball League Div 1N</t>
-  </si>
-  <si>
-    <t>/website/division/111335</t>
-  </si>
-  <si>
-    <t>https://chippenhamcc.play-cricket.com/Teams/327684</t>
-  </si>
-  <si>
-    <t>https://cityofely.play-cricket.com/Teams/288859</t>
-  </si>
-  <si>
-    <t>https://marchtown.play-cricket.com/Teams/327118</t>
-  </si>
-  <si>
-    <t>https://wisbech.play-cricket.com/Teams/327683</t>
-  </si>
-  <si>
-    <t>CCA Women’s Soft ball Cricket League Group 1</t>
-  </si>
-  <si>
-    <t>/website/division/110553</t>
-  </si>
-  <si>
-    <t>Chippenham Women's Softball Team</t>
-  </si>
-  <si>
-    <t>https://chippenhamcc.play-cricket.com/Teams/313993</t>
-  </si>
-  <si>
-    <t>City of Ely Women's Softball Team</t>
-  </si>
-  <si>
-    <t>https://cityofely.play-cricket.com/Teams/313990</t>
-  </si>
-  <si>
-    <t>Northstowe Women's Softball Team</t>
-  </si>
-  <si>
-    <t>https://northstowe.play-cricket.com/Teams/327690</t>
-  </si>
-  <si>
-    <t>Sutton Women's Softball Team</t>
-  </si>
-  <si>
-    <t>https://suttoncc.play-cricket.com/Teams/313991</t>
-  </si>
-  <si>
-    <t>CCA Women’s Soft ball Cricket League Group 2</t>
-  </si>
-  <si>
-    <t>/website/division/111340</t>
-  </si>
-  <si>
-    <t>March Town Women's Softball Team</t>
-  </si>
-  <si>
-    <t>https://marchtown.play-cricket.com/Teams/313992</t>
-  </si>
-  <si>
-    <t>Ramsey Women's Softball Team</t>
-  </si>
-  <si>
-    <t>https://ramseycchunts.play-cricket.com/Teams/327693</t>
-  </si>
-  <si>
-    <t>Wisbech Town Women's Softball Team</t>
-  </si>
-  <si>
-    <t>https://wisbech.play-cricket.com/Teams/327691</t>
-  </si>
-  <si>
-    <t>Whiting &amp;amp; Partners Division 1</t>
-  </si>
-  <si>
-    <t>/website/division/110621</t>
-  </si>
-  <si>
-    <t>https://blunham.play-cricket.com/Teams/47064</t>
-  </si>
-  <si>
-    <t>Blunham Playing Fields</t>
-  </si>
-  <si>
-    <t>/grounds/14842</t>
-  </si>
-  <si>
-    <t>https://cambstgiles.play-cricket.com/Teams/41048</t>
-  </si>
-  <si>
-    <t>https://eatonsoconcc.play-cricket.com/Teams/8884</t>
-  </si>
-  <si>
-    <t>The Terry Day Cricket Ground</t>
-  </si>
-  <si>
-    <t>/grounds/46420</t>
-  </si>
-  <si>
-    <t>https://foxtongranta.play-cricket.com/Teams/297457</t>
-  </si>
-  <si>
-    <t>https://histoncc.play-cricket.com/Teams/18966</t>
-  </si>
-  <si>
-    <t>https://marchtown.play-cricket.com/Teams/35165</t>
-  </si>
-  <si>
-    <t>https://newmarketcricketclub.play-cricket.com/Teams/277270</t>
-  </si>
-  <si>
-    <t>https://oldleysians.play-cricket.com/Teams/121316</t>
-  </si>
-  <si>
-    <t>The Leys School 1st XI pitch</t>
-  </si>
-  <si>
-    <t>/grounds/45523</t>
-  </si>
-  <si>
-    <t>https://ramseycchunts.play-cricket.com/Teams/53881</t>
-  </si>
-  <si>
-    <t>https://southillpark.play-cricket.com/Teams/155377</t>
-  </si>
-  <si>
-    <t>Southill Park CG</t>
-  </si>
-  <si>
-    <t>/grounds/2557</t>
-  </si>
-  <si>
-    <t>Whiting &amp;amp; Partners Division 2</t>
-  </si>
-  <si>
-    <t>/website/division/110622</t>
-  </si>
-  <si>
-    <t>https://biggleswade.play-cricket.com/Teams/88769</t>
-  </si>
-  <si>
-    <t>Fairfield</t>
-  </si>
-  <si>
-    <t>/grounds/18365</t>
-  </si>
-  <si>
-    <t>https://burwellandexning.play-cricket.com/Teams/224864</t>
-  </si>
-  <si>
-    <t>Exning Park</t>
-  </si>
-  <si>
-    <t>/grounds/52981</t>
-  </si>
-  <si>
-    <t>https://cacc.play-cricket.com/Teams/26241</t>
-  </si>
-  <si>
-    <t>Port Lane</t>
-  </si>
-  <si>
-    <t>/grounds/43055</t>
-  </si>
-  <si>
-    <t>https://godmanchester.play-cricket.com/Teams/155593</t>
-  </si>
-  <si>
-    <t>The Parks</t>
-  </si>
-  <si>
-    <t>/grounds/13414</t>
-  </si>
-  <si>
-    <t>https://saffronwalden.play-cricket.com/Teams/72210</t>
-  </si>
-  <si>
-    <t>Anglo American Playing Fields</t>
-  </si>
-  <si>
-    <t>/grounds/11219</t>
-  </si>
-  <si>
-    <t>https://sawstonbabraham.play-cricket.com/Teams/180942</t>
-  </si>
-  <si>
-    <t>Spicers Sports Ground</t>
-  </si>
-  <si>
-    <t>/grounds/47496</t>
-  </si>
-  <si>
-    <t>https://stiveswarboys.play-cricket.com/Teams/238142</t>
-  </si>
-  <si>
-    <t>https://stamford.play-cricket.com/Teams/302313</t>
-  </si>
-  <si>
-    <t>Ufford Park CC</t>
-  </si>
-  <si>
-    <t>https://uffordpark.play-cricket.com/Teams/9675</t>
-  </si>
-  <si>
-    <t>/grounds/12392</t>
-  </si>
-  <si>
-    <t>https://waresley.play-cricket.com/Teams/38553</t>
-  </si>
-  <si>
-    <t>Waresley Park Cricket Ground</t>
-  </si>
-  <si>
-    <t>/grounds/9461</t>
-  </si>
-  <si>
-    <t>Whiting &amp;amp; Partners Division 3</t>
-  </si>
-  <si>
-    <t>/website/division/110623</t>
-  </si>
-  <si>
-    <t>https://akxi.play-cricket.com/Teams/82646</t>
-  </si>
-  <si>
-    <t>https://cambournecc.play-cricket.com/Teams/61290</t>
-  </si>
-  <si>
-    <t>https://ncissc.play-cricket.com/Teams/9821</t>
-  </si>
-  <si>
-    <t>https://eatonsoconcc.play-cricket.com/Teams/8885</t>
-  </si>
-  <si>
-    <t>https://foxtongranta.play-cricket.com/Teams/297458</t>
-  </si>
-  <si>
-    <t>https://histoncc.play-cricket.com/Teams/18967</t>
-  </si>
-  <si>
-    <t>https://handdcc.play-cricket.com/Teams/15424</t>
-  </si>
-  <si>
-    <t>https://kimbolton.play-cricket.com/Teams/26129</t>
-  </si>
-  <si>
-    <t>https://upwood.play-cricket.com/Teams/11684</t>
-  </si>
-  <si>
-    <t>Upwood Cricket Ground</t>
-  </si>
-  <si>
-    <t>/grounds/10469</t>
-  </si>
-  <si>
-    <t>Foxton Recreation Ground</t>
-  </si>
-  <si>
-    <t>/grounds/57898</t>
-  </si>
-  <si>
-    <t>Stamford Town Cricket Club</t>
-  </si>
-  <si>
-    <t>/grounds/12462</t>
-  </si>
-  <si>
-    <t>Blunham</t>
-  </si>
-  <si>
-    <t>Cambridge Saint Giles</t>
-  </si>
-  <si>
-    <t>Eaton Socon</t>
-  </si>
-  <si>
-    <t>Foxton Granta</t>
-  </si>
-  <si>
-    <t>Histon</t>
-  </si>
-  <si>
-    <t>March Town</t>
-  </si>
-  <si>
-    <t>Newmarket</t>
-  </si>
-  <si>
-    <t>Old Leysians</t>
-  </si>
-  <si>
-    <t>Ramsey</t>
-  </si>
-  <si>
-    <t>Southill Park</t>
-  </si>
-  <si>
-    <t>Biggleswade Town</t>
-  </si>
-  <si>
-    <t>Burwell &amp; Exning</t>
-  </si>
-  <si>
-    <t>Castor &amp; Ailsworth</t>
-  </si>
-  <si>
-    <t>Godmanchester Town</t>
-  </si>
-  <si>
-    <t>Saffron Walden II</t>
-  </si>
-  <si>
-    <t>Saint Ives &amp; Warboys</t>
-  </si>
-  <si>
-    <t>Sawston &amp; Babraham II</t>
-  </si>
-  <si>
-    <t>Stamford Town</t>
-  </si>
-  <si>
-    <t>Ufford Park</t>
-  </si>
-  <si>
-    <t>Waresley</t>
-  </si>
-  <si>
-    <t>AK XI</t>
-  </si>
-  <si>
-    <t>Cambourne</t>
-  </si>
-  <si>
-    <t>Cambridge NCI</t>
-  </si>
-  <si>
-    <t>Eaton Socon II</t>
-  </si>
-  <si>
-    <t>Foxton Granta II</t>
-  </si>
-  <si>
-    <t>Histon II</t>
-  </si>
-  <si>
-    <t>Huntingdon &amp; District</t>
-  </si>
-  <si>
-    <t>Kimbolton</t>
-  </si>
-  <si>
-    <t>Upwood</t>
+    <t>2.0</t>
   </si>
 </sst>
 </file>
@@ -2543,6 +914,80 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="2C7EE24B-C535-494D-AA97-0A61EE84BA40">
+  <dimension ref="A1:J2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" x14ac:dyDescent="0.25" spans="1:10">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" x14ac:dyDescent="0.25" spans="1:10">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/temp_sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AG176"/>
